--- a/art/美术量/3D/动作/特效资源总表.xlsx
+++ b/art/美术量/3D/动作/特效资源总表.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="233">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,503 +383,532 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ultxiaochou2Hit</t>
+  </si>
+  <si>
+    <t>ultxiaochou2Pre</t>
+  </si>
+  <si>
+    <t>ultxiaochou2Hit_weapon</t>
+  </si>
+  <si>
+    <t>utlwendige3pre</t>
+  </si>
+  <si>
+    <t>道成寺钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulthuoniao4pre_Neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip001 Neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulthuoniao4pre_chibang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulthuoniao4pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulthuoniao3pre_Neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip001 Neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulthuoniao3pre_chibang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulthuoniao3pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫦娥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change5pre</t>
+  </si>
+  <si>
+    <t>change5pre_rhand</t>
+  </si>
+  <si>
+    <t>Bip001 R Hand</t>
+  </si>
+  <si>
+    <t>赛布勒斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯瑞斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultKairuisi4Pre</t>
+  </si>
+  <si>
+    <t>Bone001</t>
+  </si>
+  <si>
+    <t>ultKairuisi4pre_daoguang</t>
+  </si>
+  <si>
+    <t>龙女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultlongnv3Pre</t>
+  </si>
+  <si>
+    <t>ultlongnv3pre_weapon</t>
+  </si>
+  <si>
+    <t>Bip001 L Hand</t>
+  </si>
+  <si>
+    <t>落新妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿姆特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安普沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊芙利特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultyifulite5Pre_wuqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip001 Prop1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultyifulite5Pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultyifulite4Pre_wuqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dujiaoshou1pre_rhand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip001 R Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip001 L Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dujiaoshou1pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dujiaoshou1pre_Spine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip001 Spine1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dujiaoshou5pre_rhand</t>
+  </si>
+  <si>
+    <t>dujiaoshou5pre</t>
+  </si>
+  <si>
+    <t>dujiaoshou5pre_Spine</t>
+  </si>
+  <si>
+    <t>天使长</t>
+  </si>
+  <si>
+    <t>黄金之灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulthuangjinzhiling2_1pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulthuangjinzhiling2_1rhand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efc_slot_rhand01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulthuangjinzhiling2_2pre_Spine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip01 Spine1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulthuangjinzhiling2_2pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulthuangjinzhiling1_1pre_Rhand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip01 L Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip01 R Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulthuangjinzhiling1_1pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛙鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultWaguiPre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultHuapoPre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultHuapoPre01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utlmomo1pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utlmomo1pre_Spine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utlmomopre_rhand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip001 R Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip001 Spine1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultPanshenPre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultPanshenPre01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ultMantuoluo_xiquyangfen </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultMantuoluoPre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultLonggongtongziPre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultLonggongtongziHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultHapiPre01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultHapiPre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_leg1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_leg2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_leg3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_leg4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_leg5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_leg6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultLuoxinfuPre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultLuoxinfuPre02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultAmuteBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultAmutePre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultAnpushaPre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultAnpushaHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟类特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体水法术纯伤害（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体木法术纯伤害（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体水属性伤害（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体嘲讽（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方全体群体力量and智力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultXiyirenPre</t>
+  </si>
+  <si>
+    <t>群体暗法术伤害（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体治疗几率附加物理减免护盾（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体嘲讽附加自身防御力上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体暗属性伤害几率附加禁止回血buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体纯治疗（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体水法术伤害几率附带眩晕（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体治疗几率附加hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体法术水属性伤害并给己方群体添加加速buff（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体法术火属性伤害并给敌方群体添加减速debuff（自动）</t>
+  </si>
+  <si>
+    <t>敌方群体暗法术伤害几率附带智力下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultKairuisiPre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体火法术纯伤害（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体法术水属性伤害附加水属性弱dot（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给敌方群体上暗属性强dot（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体添加法术、物理吸收护盾（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体物理暗属性伤害附加一定几率驱散敌方增益buff（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体物理火属性伤害附加一定几率驱散自身减益buff（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散敌方增益buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultyifulite4Pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultyifulite4Prebosswugong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>utlwendige2pre</t>
-  </si>
-  <si>
-    <t>ultxiaochou2Hit</t>
-  </si>
-  <si>
-    <t>ultxiaochou2Pre</t>
-  </si>
-  <si>
-    <t>ultxiaochou2Hit_weapon</t>
-  </si>
-  <si>
-    <t>utlwendige3pre</t>
-  </si>
-  <si>
-    <t>道成寺钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulthuoniao4pre_Neck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bip001 Neck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulthuoniao4pre_chibang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bone024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bone030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulthuoniao4pre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulthuoniao3pre_Neck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bip001 Neck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulthuoniao3pre_chibang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bone024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bone030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulthuoniao3pre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嫦娥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change5pre</t>
-  </si>
-  <si>
-    <t>change5pre_rhand</t>
-  </si>
-  <si>
-    <t>Bip001 R Hand</t>
-  </si>
-  <si>
-    <t>赛布勒斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯瑞斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultKairuisi4Pre</t>
-  </si>
-  <si>
-    <t>Bone001</t>
-  </si>
-  <si>
-    <t>ultKairuisi4pre_daoguang</t>
-  </si>
-  <si>
-    <t>龙女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultlongnv3Pre</t>
-  </si>
-  <si>
-    <t>ultlongnv3pre_weapon</t>
-  </si>
-  <si>
-    <t>Bip001 L Hand</t>
-  </si>
-  <si>
-    <t>落新妇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿姆特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安普沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊芙利特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultyifulite5Pre_wuqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bip001 Prop1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultyifulite5Pre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultyifulite4Pre_wuqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultyifulite4Pre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大天狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>独角兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dujiaoshou1pre_rhand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bip001 R Hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bip001 L Hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dujiaoshou1pre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dujiaoshou1pre_Spine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bip001 Spine1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dujiaoshou5pre_rhand</t>
-  </si>
-  <si>
-    <t>dujiaoshou5pre</t>
-  </si>
-  <si>
-    <t>dujiaoshou5pre_Spine</t>
-  </si>
-  <si>
-    <t>天使长</t>
-  </si>
-  <si>
-    <t>黄金之灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulthuangjinzhiling2_1pre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulthuangjinzhiling2_1rhand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>efc_slot_rhand01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulthuangjinzhiling2_2pre_Spine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bip01 Spine1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulthuangjinzhiling2_2pre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulthuangjinzhiling1_1pre_Rhand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bip01 L Hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bip01 R Hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulthuangjinzhiling1_1pre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛙鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultWaguiPre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultHuapoPre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultHuapoPre01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>utlmomo1pre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>utlmomo1pre_Spine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>utlmomopre_rhand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bip001 R Hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bip001 Spine1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultPanshenPre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultPanshenPre01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ultMantuoluo_xiquyangfen </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultMantuoluoPre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultLonggongtongziPre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultLonggongtongziHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultHapiPre01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultHapiPre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp_leg1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp_leg2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp_leg3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp_leg4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp_leg5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp_leg6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultLuoxinfuPre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultLuoxinfuPre02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultAmuteBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultAmutePre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultAnpushaPre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultAnpushaHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延迟类特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体水法术纯伤害（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体木法术纯伤害（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体水属性伤害（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体嘲讽（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方全体群体力量and智力提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultXiyirenPre</t>
-  </si>
-  <si>
-    <t>群体暗法术伤害（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体治疗几率附加物理减免护盾（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体嘲讽附加自身防御力上升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体暗属性伤害几率附加禁止回血buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体纯治疗（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体水法术伤害几率附带眩晕（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体治疗几率附加hot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体法术水属性伤害并给己方群体添加加速buff（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体法术火属性伤害并给敌方群体添加减速debuff（自动）</t>
-  </si>
-  <si>
-    <t>敌方群体暗法术伤害几率附带智力下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultKairuisiPre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体火法术纯伤害（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体法术水属性伤害附加水属性弱dot（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给敌方群体上暗属性强dot（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体添加法术、物理吸收护盾（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体物理暗属性伤害附加一定几率驱散敌方增益buff（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体物理火属性伤害附加一定几率驱散自身减益buff（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱散敌方增益buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utldaochengsizhong4pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utlhongniu4pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utlhongniu4pre_hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1284,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J190"/>
+  <dimension ref="B1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E182" sqref="E182"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1324,13 +1353,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1408,7 +1437,7 @@
     </row>
     <row r="7" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D7" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -1504,7 +1533,7 @@
         <v>95</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>16</v>
@@ -1518,7 +1547,7 @@
     </row>
     <row r="16" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D16" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>16</v>
@@ -1532,7 +1561,7 @@
     </row>
     <row r="17" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D17" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>17</v>
@@ -1546,7 +1575,7 @@
     </row>
     <row r="18" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D18" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1602,21 +1631,21 @@
     </row>
     <row r="23" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D23" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>16</v>
@@ -1652,7 +1681,7 @@
     </row>
     <row r="28" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D28" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1665,7 +1694,7 @@
         <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>81</v>
@@ -1680,7 +1709,7 @@
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C31" s="5"/>
       <c r="D31" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
@@ -1772,7 +1801,7 @@
     </row>
     <row r="38" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D38" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E38" s="15"/>
     </row>
@@ -1845,10 +1874,10 @@
     </row>
     <row r="44" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C44" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>10</v>
@@ -1862,7 +1891,7 @@
     </row>
     <row r="45" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D45" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -1918,7 +1947,7 @@
     </row>
     <row r="51" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D51" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E51" s="15"/>
     </row>
@@ -1932,7 +1961,7 @@
         <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E53" t="s">
         <v>81</v>
@@ -1946,10 +1975,10 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G54" s="25" t="s">
         <v>12</v>
@@ -1960,10 +1989,10 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G55" s="25" t="s">
         <v>12</v>
@@ -1974,10 +2003,10 @@
     </row>
     <row r="56" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D56" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G56" s="25" t="s">
         <v>12</v>
@@ -1988,7 +2017,7 @@
     </row>
     <row r="57" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D57" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2015,7 +2044,7 @@
     </row>
     <row r="60" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D60" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2078,7 +2107,7 @@
     </row>
     <row r="66" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D66" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2096,10 +2125,10 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D72" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E72" s="25" t="s">
         <v>16</v>
@@ -2113,7 +2142,7 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D73" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E73" s="25" t="s">
         <v>16</v>
@@ -2135,7 +2164,7 @@
         <v>95</v>
       </c>
       <c r="D75" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E75" s="25" t="s">
         <v>16</v>
@@ -2149,7 +2178,7 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E76" s="25" t="s">
         <v>16</v>
@@ -2163,7 +2192,7 @@
     </row>
     <row r="77" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D77" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2173,10 +2202,10 @@
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E79" s="25" t="s">
         <v>16</v>
@@ -2190,7 +2219,7 @@
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D80" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E80" s="25" t="s">
         <v>16</v>
@@ -2204,7 +2233,7 @@
     </row>
     <row r="81" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D81" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2295,7 +2324,7 @@
     </row>
     <row r="89" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D89" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E89" s="14"/>
     </row>
@@ -2359,10 +2388,10 @@
         <v>59</v>
       </c>
       <c r="D95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E95" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G95" s="25" t="s">
         <v>12</v>
@@ -2373,10 +2402,10 @@
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D96" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G96" s="25" t="s">
         <v>12</v>
@@ -2387,7 +2416,7 @@
     </row>
     <row r="97" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D97" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2400,7 +2429,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E99" s="22" t="s">
         <v>16</v>
@@ -2417,7 +2446,7 @@
         <v>95</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="E100" s="20" t="s">
         <v>16</v>
@@ -2431,17 +2460,74 @@
     </row>
     <row r="101" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B101" s="16" t="s">
-        <v>101</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C102" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102" t="s">
+        <v>227</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D103" t="s">
+        <v>229</v>
+      </c>
+      <c r="E103" t="s">
+        <v>230</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="25"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
     </row>
     <row r="105" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B105" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D106" t="s">
+        <v>231</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C107" s="25"/>
+      <c r="D107" t="s">
+        <v>232</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G107" s="25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B109" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.15">
@@ -2449,10 +2535,10 @@
         <v>47</v>
       </c>
       <c r="D110" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E110" s="22" t="s">
         <v>104</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>105</v>
       </c>
       <c r="G110" s="25" t="s">
         <v>12</v>
@@ -2463,10 +2549,10 @@
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D111" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E111" s="22" t="s">
         <v>106</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>107</v>
       </c>
       <c r="G111" s="25" t="s">
         <v>12</v>
@@ -2477,10 +2563,10 @@
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D112" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G112" s="25" t="s">
         <v>12</v>
@@ -2491,10 +2577,10 @@
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D113" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="E113" s="22" t="s">
-        <v>110</v>
       </c>
       <c r="F113" s="25" t="s">
         <v>12</v>
@@ -2505,7 +2591,7 @@
     </row>
     <row r="114" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D114" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.15">
@@ -2513,10 +2599,10 @@
         <v>9</v>
       </c>
       <c r="D115" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E115" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>112</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>12</v>
@@ -2527,10 +2613,10 @@
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D116" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E116" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>114</v>
       </c>
       <c r="G116" s="25" t="s">
         <v>12</v>
@@ -2541,10 +2627,10 @@
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D117" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G117" s="25" t="s">
         <v>12</v>
@@ -2555,7 +2641,7 @@
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D118" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E118" s="22" t="s">
         <v>10</v>
@@ -2569,12 +2655,12 @@
     </row>
     <row r="119" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D119" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B120" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.15">
@@ -2582,7 +2668,7 @@
         <v>71</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E121" s="23" t="s">
         <v>16</v>
@@ -2596,10 +2682,10 @@
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D122" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E122" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="E122" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="G122" s="25" t="s">
         <v>12</v>
@@ -2610,12 +2696,12 @@
     </row>
     <row r="123" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B123" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B127" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.15">
@@ -2623,7 +2709,7 @@
     </row>
     <row r="131" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B131" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.15">
@@ -2631,10 +2717,10 @@
         <v>47</v>
       </c>
       <c r="D132" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E132" s="24" t="s">
         <v>124</v>
-      </c>
-      <c r="E132" s="24" t="s">
-        <v>125</v>
       </c>
       <c r="G132" s="25" t="s">
         <v>12</v>
@@ -2645,7 +2731,7 @@
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D133" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E133" s="24" t="s">
         <v>16</v>
@@ -2659,7 +2745,7 @@
     </row>
     <row r="134" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D134" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.15">
@@ -2667,10 +2753,10 @@
         <v>71</v>
       </c>
       <c r="D135" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G135" s="25" t="s">
         <v>12</v>
@@ -2681,12 +2767,12 @@
     </row>
     <row r="136" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D136" s="25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="137" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B137" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.15">
@@ -2694,7 +2780,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E138" s="25" t="s">
         <v>16</v>
@@ -2708,10 +2794,10 @@
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D139" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G139" s="25" t="s">
         <v>12</v>
@@ -2722,10 +2808,10 @@
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D140" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E140" s="25" t="s">
         <v>129</v>
-      </c>
-      <c r="E140" s="25" t="s">
-        <v>130</v>
       </c>
       <c r="G140" s="25" t="s">
         <v>12</v>
@@ -2733,12 +2819,12 @@
     </row>
     <row r="141" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D141" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="142" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B142" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.15">
@@ -2746,10 +2832,10 @@
         <v>71</v>
       </c>
       <c r="D143" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E143" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G143" s="25" t="s">
         <v>12</v>
@@ -2760,10 +2846,10 @@
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D144" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G144" s="25" t="s">
         <v>12</v>
@@ -2774,10 +2860,10 @@
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D145" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G145" s="25" t="s">
         <v>12</v>
@@ -2788,10 +2874,10 @@
     </row>
     <row r="146" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D146" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G146" s="25" t="s">
         <v>12</v>
@@ -2802,10 +2888,10 @@
     </row>
     <row r="147" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D147" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G147" s="25" t="s">
         <v>12</v>
@@ -2816,10 +2902,10 @@
     </row>
     <row r="148" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D148" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G148" s="25" t="s">
         <v>12</v>
@@ -2830,10 +2916,10 @@
     </row>
     <row r="149" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D149" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G149" s="25" t="s">
         <v>12</v>
@@ -2844,20 +2930,20 @@
     </row>
     <row r="150" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D150" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="151" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B151" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C152" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D152" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E152" s="25" t="s">
         <v>16</v>
@@ -2871,7 +2957,7 @@
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D153" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E153" s="25" t="s">
         <v>16</v>
@@ -2885,12 +2971,12 @@
     </row>
     <row r="154" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D154" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="155" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B155" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.15">
@@ -2898,7 +2984,7 @@
         <v>71</v>
       </c>
       <c r="D156" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E156" s="25" t="s">
         <v>16</v>
@@ -2912,10 +2998,10 @@
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D157" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E157" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G157" s="25" t="s">
         <v>12</v>
@@ -2928,18 +3014,18 @@
     </row>
     <row r="158" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B158" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C159" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D159" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E159" s="25" t="s">
         <v>135</v>
-      </c>
-      <c r="E159" s="25" t="s">
-        <v>136</v>
       </c>
       <c r="G159" s="25" t="s">
         <v>12</v>
@@ -2950,10 +3036,10 @@
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D160" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E160" s="25" t="s">
         <v>137</v>
-      </c>
-      <c r="E160" s="25" t="s">
-        <v>138</v>
       </c>
       <c r="F160" s="25" t="s">
         <v>12</v>
@@ -2964,7 +3050,7 @@
     </row>
     <row r="161" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D161" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.15">
@@ -2972,10 +3058,10 @@
         <v>47</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G162" s="25" t="s">
         <v>12</v>
@@ -2986,10 +3072,10 @@
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D163" s="25" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F163" s="25" t="s">
         <v>12</v>
@@ -3000,42 +3086,39 @@
     </row>
     <row r="164" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D164" s="25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D165" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E165" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F165" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B166" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B170" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C171" t="s">
+        <v>59</v>
+      </c>
+      <c r="D171" s="25" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="169" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B169" s="16" t="s">
+      <c r="E171" s="25" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C170" t="s">
-        <v>59</v>
-      </c>
-      <c r="D170" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E170" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G170" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H170" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D171" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E171" s="25" t="s">
-        <v>146</v>
       </c>
       <c r="G171" s="25" t="s">
         <v>12</v>
@@ -3046,12 +3129,12 @@
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D172" s="25" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F172" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G172" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H172" s="25" t="s">
@@ -3060,41 +3143,41 @@
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D173" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E173" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F173" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D174" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E174" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G174" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H174" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C175" t="s">
+        <v>71</v>
+      </c>
+      <c r="D175" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E173" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="G173" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H173" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C174" t="s">
-        <v>71</v>
-      </c>
-      <c r="D174" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E174" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G174" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H174" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D175" s="25" t="s">
-        <v>150</v>
-      </c>
       <c r="E175" s="25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G175" s="25" t="s">
         <v>12</v>
@@ -3105,12 +3188,12 @@
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D176" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F176" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G176" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H176" s="25" t="s">
@@ -3119,55 +3202,55 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D177" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E177" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F177" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H177" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D178" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E178" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G178" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H178" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D179" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B184" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="E177" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="G177" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H177" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D178" s="25" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B179" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="183" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B183" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D184" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E184" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F184" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H184" s="25" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D185" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G185" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F185" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H185" s="25" t="s">
@@ -3176,10 +3259,10 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D186" s="25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E186" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G186" s="25" t="s">
         <v>12</v>
@@ -3190,12 +3273,12 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D187" s="25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F187" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G187" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H187" s="25" t="s">
@@ -3204,12 +3287,12 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D188" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G188" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F188" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H188" s="25" t="s">
@@ -3218,10 +3301,10 @@
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D189" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G189" s="25" t="s">
         <v>12</v>
@@ -3232,15 +3315,29 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D190" s="25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F190" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G190" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H190" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D191" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E191" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F191" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H191" s="25" t="s">
         <v>12</v>
       </c>
     </row>

--- a/art/美术量/3D/动作/特效资源总表.xlsx
+++ b/art/美术量/3D/动作/特效资源总表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="276">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -910,6 +910,138 @@
   <si>
     <t>utlhongniu4pre_hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙女</t>
+  </si>
+  <si>
+    <t>fashu_dazhao_shui_zha</t>
+  </si>
+  <si>
+    <t>人物胸口</t>
+  </si>
+  <si>
+    <t>得莫非</t>
+  </si>
+  <si>
+    <t>fashu_dazhao_guang_zhiliao</t>
+  </si>
+  <si>
+    <t>场景AOE挂点</t>
+  </si>
+  <si>
+    <t>水鬼</t>
+  </si>
+  <si>
+    <t>fashu_dazhao_shui_qungong</t>
+  </si>
+  <si>
+    <t>fashu_dazhao_shui_zhu</t>
+  </si>
+  <si>
+    <t>人物地面</t>
+  </si>
+  <si>
+    <t>火鸟水</t>
+  </si>
+  <si>
+    <t>火鸟火</t>
+  </si>
+  <si>
+    <t>fashu_dazhao_huo_qungong</t>
+  </si>
+  <si>
+    <t>fashu_dazhao_huo_xuanfeng</t>
+  </si>
+  <si>
+    <t>人物脚下</t>
+  </si>
+  <si>
+    <t>伊芙利特火</t>
+  </si>
+  <si>
+    <t>wuli_dazhao_huo_qungong</t>
+  </si>
+  <si>
+    <t>伊芙利特暗</t>
+  </si>
+  <si>
+    <t>wuli_dazhao_an_qungong</t>
+  </si>
+  <si>
+    <t>凯瑞斯</t>
+  </si>
+  <si>
+    <t>阿姆特</t>
+  </si>
+  <si>
+    <t>fashu_dazhao_shui_zhiliao</t>
+  </si>
+  <si>
+    <t>独角兽</t>
+  </si>
+  <si>
+    <t>fashu_dazhao_an_qungong</t>
+  </si>
+  <si>
+    <t>伪天使</t>
+  </si>
+  <si>
+    <t>fashu_dazhao_an_bao</t>
+  </si>
+  <si>
+    <t>冰魔</t>
+  </si>
+  <si>
+    <t>fashu_dazhao_bing_bao</t>
+  </si>
+  <si>
+    <t>冰雪女王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultbingxuenvwang3pre</t>
+  </si>
+  <si>
+    <t>ultbingxuenvwang3pre_hit</t>
+  </si>
+  <si>
+    <t>aoe地面</t>
+  </si>
+  <si>
+    <t>九尾狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultjiuweihu4pre_1</t>
+  </si>
+  <si>
+    <t>ultjiuweihu4pre_1_hand</t>
+  </si>
+  <si>
+    <t>magicFireBall（命中）</t>
+  </si>
+  <si>
+    <t>敌方胸口</t>
+  </si>
+  <si>
+    <t>ultjiuweihu4pre_2</t>
+  </si>
+  <si>
+    <t>magicFireColumnp（命中）</t>
+  </si>
+  <si>
+    <t>敌方地面</t>
+  </si>
+  <si>
+    <t>ultjiuweihu4pre_3</t>
+  </si>
+  <si>
+    <t>ultjiuweihu4pre_3_hand</t>
   </si>
 </sst>
 </file>
@@ -964,7 +1096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1000,6 +1132,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1313,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J191"/>
+  <dimension ref="B1:J225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3341,6 +3478,395 @@
         <v>12</v>
       </c>
     </row>
+    <row r="192" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B192" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B193" s="26"/>
+      <c r="C193" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D193" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E193" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G193" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B194" s="26"/>
+      <c r="C194" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D194" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="E194" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F194" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B195" s="26"/>
+      <c r="C195" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D195" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="E195" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F195" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B196" s="26"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="E196" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="F196" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B197" s="26"/>
+      <c r="C197" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D197" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E197" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G197" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B198" s="26"/>
+      <c r="C198" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D198" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E198" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F198" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B199" s="26"/>
+      <c r="C199" s="26"/>
+      <c r="D199" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E199" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="F199" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B200" s="26"/>
+      <c r="C200" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D200" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E200" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F200" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B201" s="26"/>
+      <c r="C201" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="D201" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="E201" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F201" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B202" s="26"/>
+      <c r="C202" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="D202" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E202" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F202" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B203" s="26"/>
+      <c r="C203" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D203" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E203" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F203" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H203" s="26"/>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B204" s="26"/>
+      <c r="C204" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D204" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E204" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F204" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B205" s="26"/>
+      <c r="C205" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D205" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E205" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F205" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B206" s="26"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E206" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G206" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B207" s="26"/>
+      <c r="C207" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D207" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E207" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G207" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B208" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D209" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E209" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F209" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H209" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D210" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="E210" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="F210" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B211" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D212" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="E212" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F212" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H212" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D213" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E213" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G213" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H213" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D214" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E214" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F214" s="27"/>
+      <c r="G214" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H214" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D215" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E215" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G215" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D216" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="E216" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F216" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H216" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D217" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="E217" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="F217" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D218" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E218" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F218" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H218" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D219" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E219" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G219" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H219" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D220" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E220" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G220" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H220" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G221" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F225" s="30"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/art/美术量/3D/动作/特效资源总表.xlsx
+++ b/art/美术量/3D/动作/特效资源总表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="317">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1042,6 +1042,144 @@
   </si>
   <si>
     <t>ultjiuweihu4pre_3_hand</t>
+  </si>
+  <si>
+    <t>utltiejiang4pre1_hand</t>
+  </si>
+  <si>
+    <t>Bone021(mirrored)(mirrored)</t>
+  </si>
+  <si>
+    <t>utltiejiang4pre1</t>
+  </si>
+  <si>
+    <t>utltiejiang4pre2_hand</t>
+  </si>
+  <si>
+    <t>Bone021(mirrored) 1</t>
+  </si>
+  <si>
+    <t>utltiejiang4pre2</t>
+  </si>
+  <si>
+    <t>utltiejiang4pre5_hit（命中）</t>
+  </si>
+  <si>
+    <t>utltiejiang4pre3</t>
+  </si>
+  <si>
+    <t>utltiejiang4pre4_hand</t>
+  </si>
+  <si>
+    <t>Bone021(mirrored)</t>
+  </si>
+  <si>
+    <t>Bone021</t>
+  </si>
+  <si>
+    <t>utltiejiang4pre4_hit（命中）</t>
+  </si>
+  <si>
+    <t>utltiejiang4pre4</t>
+  </si>
+  <si>
+    <t>utltiejiang4pre5</t>
+  </si>
+  <si>
+    <t>敲打</t>
+  </si>
+  <si>
+    <t>疯狂制作</t>
+  </si>
+  <si>
+    <t>潘多拉盒子</t>
+  </si>
+  <si>
+    <t>网</t>
+  </si>
+  <si>
+    <t>制造之神</t>
+  </si>
+  <si>
+    <t>铁匠（火）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招炫耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultdatiangou4pre_wuqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_fan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultdatiangou4pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSSbuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultdatiangou4pre_bossbuff_hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip001 L Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultdatiangou4pre_bossbuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇怪4</t>
+  </si>
+  <si>
+    <t>ultmogurenpre4</t>
+  </si>
+  <si>
+    <t>ultmogurenpre4_juqi</t>
+  </si>
+  <si>
+    <t>Bone003(mirrored)(mirrored)</t>
+  </si>
+  <si>
+    <t>蘑菇怪3</t>
+  </si>
+  <si>
+    <t>ultmogurenpre3</t>
+  </si>
+  <si>
+    <t>ultmogurenpre3_juqi</t>
+  </si>
+  <si>
+    <t>attackWaterSmash（命中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackFireSmash（命中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackFireCut（命中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方胸口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1096,7 +1234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1132,6 +1270,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1450,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J225"/>
+  <dimension ref="B1:J259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G221" sqref="G221"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="D169" sqref="D169:E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3185,12 +3329,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D161" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C162" t="s">
         <v>47</v>
       </c>
@@ -3207,7 +3351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D163" s="25" t="s">
         <v>224</v>
       </c>
@@ -3221,12 +3365,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D164" s="25" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="165" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D165" s="25" t="s">
         <v>225</v>
       </c>
@@ -3237,114 +3381,161 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B166" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="170" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="16" t="s">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C167" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="D167" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E167" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="F167" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C168" s="35"/>
+      <c r="D168" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E168" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H168" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I168" s="35"/>
+    </row>
+    <row r="169" spans="2:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D169" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="E169" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="G169" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C170" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="D170" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="E170" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="F170" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D171" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="E171" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G171" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H171" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B172" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C171" t="s">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C173" t="s">
         <v>59</v>
       </c>
-      <c r="D171" s="25" t="s">
+      <c r="D173" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="E171" s="25" t="s">
+      <c r="E173" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="G171" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H171" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D172" s="25" t="s">
+      <c r="G173" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D174" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="E172" s="25" t="s">
+      <c r="E174" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="G172" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H172" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D173" s="25" t="s">
+      <c r="G174" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H174" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D175" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="E173" s="25" t="s">
+      <c r="E175" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F173" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H173" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D174" s="25" t="s">
+      <c r="F175" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D176" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E174" s="25" t="s">
+      <c r="E176" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="G174" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H174" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C175" t="s">
+      <c r="G176" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H176" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C177" t="s">
         <v>71</v>
       </c>
-      <c r="D175" s="25" t="s">
+      <c r="D177" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E175" s="25" t="s">
+      <c r="E177" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="G175" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H175" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D176" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E176" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G176" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H176" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D177" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E177" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F177" s="25" t="s">
+      <c r="G177" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H177" s="25" t="s">
@@ -3353,69 +3544,69 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D178" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E178" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G178" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H178" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D179" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E179" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F179" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H179" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D180" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="E178" s="25" t="s">
+      <c r="E180" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="G178" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H178" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D179" s="25" t="s">
+      <c r="G180" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H180" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D181" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="180" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B180" s="16" t="s">
+    <row r="182" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B182" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="184" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B184" s="16" t="s">
+    <row r="186" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B186" s="16" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D185" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E185" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F185" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H185" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D186" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="E186" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="G186" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H186" s="25" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D187" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G187" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F187" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H187" s="25" t="s">
@@ -3424,12 +3615,12 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D188" s="25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F188" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G188" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H188" s="25" t="s">
@@ -3438,10 +3629,10 @@
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D189" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G189" s="25" t="s">
         <v>12</v>
@@ -3452,12 +3643,12 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D190" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G190" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F190" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H190" s="25" t="s">
@@ -3466,76 +3657,76 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D191" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E191" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G191" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H191" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D192" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E192" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G192" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H192" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D193" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E191" s="25" t="s">
+      <c r="E193" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F191" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H191" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="192" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B192" s="16" t="s">
+      <c r="F193" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H193" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B194" s="16" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B193" s="26"/>
-      <c r="C193" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="D193" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="E193" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="G193" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B194" s="26"/>
-      <c r="C194" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="D194" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="E194" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="F194" s="26" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B195" s="26"/>
       <c r="C195" s="26" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D195" s="26" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E195" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="F195" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G195" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B196" s="26"/>
-      <c r="C196" s="26"/>
+      <c r="C196" s="26" t="s">
+        <v>237</v>
+      </c>
       <c r="D196" s="26" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F196" s="26" t="s">
         <v>12</v>
@@ -3544,28 +3735,26 @@
     <row r="197" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B197" s="26"/>
       <c r="C197" s="26" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D197" s="26" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E197" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="G197" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F197" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B198" s="26"/>
-      <c r="C198" s="26" t="s">
-        <v>245</v>
-      </c>
+      <c r="C198" s="26"/>
       <c r="D198" s="26" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E198" s="26" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F198" s="26" t="s">
         <v>12</v>
@@ -3573,24 +3762,26 @@
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B199" s="26"/>
-      <c r="C199" s="26"/>
+      <c r="C199" s="26" t="s">
+        <v>244</v>
+      </c>
       <c r="D199" s="26" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E199" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F199" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G199" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B200" s="26"/>
       <c r="C200" s="26" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D200" s="26" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E200" s="26" t="s">
         <v>239</v>
@@ -3601,14 +3792,12 @@
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B201" s="26"/>
-      <c r="C201" s="26" t="s">
-        <v>251</v>
-      </c>
+      <c r="C201" s="26"/>
       <c r="D201" s="26" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E201" s="26" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F201" s="26" t="s">
         <v>12</v>
@@ -3617,7 +3806,7 @@
     <row r="202" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B202" s="26"/>
       <c r="C202" s="26" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D202" s="26" t="s">
         <v>250</v>
@@ -3632,10 +3821,10 @@
     <row r="203" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B203" s="26"/>
       <c r="C203" s="26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D203" s="26" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E203" s="26" t="s">
         <v>239</v>
@@ -3643,15 +3832,14 @@
       <c r="F203" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H203" s="26"/>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B204" s="26"/>
       <c r="C204" s="26" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E204" s="26" t="s">
         <v>239</v>
@@ -3663,10 +3851,10 @@
     <row r="205" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B205" s="26"/>
       <c r="C205" s="26" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E205" s="26" t="s">
         <v>239</v>
@@ -3674,107 +3862,109 @@
       <c r="F205" s="26" t="s">
         <v>12</v>
       </c>
+      <c r="H205" s="26"/>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B206" s="26"/>
-      <c r="C206" s="26"/>
+      <c r="C206" s="26" t="s">
+        <v>256</v>
+      </c>
       <c r="D206" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E206" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="G206" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F206" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B207" s="26"/>
       <c r="C207" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D207" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E207" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F207" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B208" s="26"/>
+      <c r="C208" s="26"/>
+      <c r="D208" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E208" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G208" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B209" s="26"/>
+      <c r="C209" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D207" s="26" t="s">
+      <c r="D209" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="E207" s="26" t="s">
+      <c r="E209" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="G207" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="208" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B208" s="16" t="s">
+      <c r="G209" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B210" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D209" s="27" t="s">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D211" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="E209" s="27" t="s">
+      <c r="E211" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F209" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H209" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D210" s="27" t="s">
+      <c r="F211" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H211" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D212" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="E210" s="27" t="s">
+      <c r="E212" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="F210" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B211" s="16" t="s">
+      <c r="F212" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B213" s="16" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D212" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="E212" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F212" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H212" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D213" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="E213" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G213" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H213" s="30" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D214" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E214" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F214" s="27"/>
-      <c r="G214" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F214" s="30" t="s">
         <v>12</v>
       </c>
       <c r="H214" s="30" t="s">
@@ -3783,89 +3973,515 @@
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D215" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E215" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G215" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H215" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D216" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E216" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F216" s="27"/>
+      <c r="G216" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H216" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D217" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="E215" s="28" t="s">
+      <c r="E217" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="G215" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D216" s="29" t="s">
+      <c r="G217" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D218" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="E216" s="29" t="s">
+      <c r="E218" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F216" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H216" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D217" s="29" t="s">
+      <c r="F218" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H218" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D219" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="E217" s="29" t="s">
+      <c r="E219" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="F217" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D218" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="E218" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F218" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H218" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D219" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="E219" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="G219" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H219" s="30" t="s">
+      <c r="F219" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D220" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E220" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F220" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H220" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D221" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="E220" s="30" t="s">
+      <c r="E221" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G221" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H221" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D222" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E222" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="G220" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H220" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="G221" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="225" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F225" s="30"/>
+      <c r="G222" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H222" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B223" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C224" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D224" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E224" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G224" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H224" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C225" s="35"/>
+      <c r="D225" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E225" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F225" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H225" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C226" s="35"/>
+      <c r="D226" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="E226" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F226" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D227" s="31"/>
+      <c r="E227" s="31"/>
+      <c r="F227" s="30"/>
+    </row>
+    <row r="228" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C228" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="D228" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="E228" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="G228" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H228" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C229" s="35"/>
+      <c r="D229" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E229" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G229" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H229" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C230" s="35"/>
+      <c r="D230" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="E230" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F230" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C231" s="35"/>
+      <c r="D231" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="E231" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="G231" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H231" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D232" s="32"/>
+      <c r="E232" s="32"/>
+    </row>
+    <row r="233" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C233" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D233" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E233" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F233" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H233" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C234" s="35"/>
+      <c r="D234" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="E234" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="G234" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H234" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C235" s="35"/>
+      <c r="D235" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E235" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G235" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H235" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C236" s="35"/>
+      <c r="D236" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="E236" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="F236" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D237" s="33"/>
+      <c r="E237" s="33"/>
+    </row>
+    <row r="238" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C238" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="D238" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E238" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="G238" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C239" s="35"/>
+      <c r="D239" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E239" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="G239" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C240" s="35"/>
+      <c r="D240" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="E240" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="G240" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C241" s="35"/>
+      <c r="D241" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E241" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G241" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C242" s="35"/>
+      <c r="D242" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="E242" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="F242" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C243" s="35"/>
+      <c r="D243" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E243" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F243" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D244" s="34"/>
+      <c r="E244" s="34"/>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C245" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D245" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="E245" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F245" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C246" s="35"/>
+      <c r="D246" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="E246" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="G246" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C247" s="35"/>
+      <c r="D247" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E247" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G247" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C248" s="35"/>
+      <c r="D248" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="E248" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="G248" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B249" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C250" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D250" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="E250" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F250" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H250" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C251" s="36"/>
+      <c r="D251" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="E251" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="F251" s="36"/>
+      <c r="G251" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H251" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D252" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E252" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C253" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="D253" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="E253" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F253" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H253" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C254" s="36"/>
+      <c r="D254" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E254" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="F254" s="36"/>
+      <c r="G254" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H254" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D255" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="E255" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G257" s="36"/>
+    </row>
+    <row r="258" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E258" s="36"/>
+      <c r="F258" s="35"/>
+    </row>
+    <row r="259" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D259" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/art/美术量/3D/动作/特效资源总表.xlsx
+++ b/art/美术量/3D/动作/特效资源总表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="326">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,10 +295,6 @@
     <t>ultweitianshi5pre</t>
   </si>
   <si>
-    <t>蘑菇怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>潘神</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1179,6 +1175,46 @@
   </si>
   <si>
     <t>敌方胸口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amute3pre_bossbuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招炫耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultmijiale4pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultmijiale4pre_wuqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultmijiale4pre_zhiliao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultmijiale4pre_zhiliaowuqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireColumnp(命中)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1594,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J259"/>
+  <dimension ref="B1:K258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="D169" sqref="D169:E169"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="K183" sqref="K183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1634,13 +1670,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1718,7 +1754,7 @@
     </row>
     <row r="7" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D7" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -1811,10 +1847,10 @@
     <row r="14" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C15" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>95</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>96</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>16</v>
@@ -1828,7 +1864,7 @@
     </row>
     <row r="16" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D16" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>16</v>
@@ -1842,7 +1878,7 @@
     </row>
     <row r="17" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D17" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>17</v>
@@ -1856,7 +1892,7 @@
     </row>
     <row r="18" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D18" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1912,21 +1948,21 @@
     </row>
     <row r="23" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D23" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>16</v>
@@ -1962,7 +1998,7 @@
     </row>
     <row r="28" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D28" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1972,13 +2008,13 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>12</v>
@@ -1990,7 +2026,7 @@
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C31" s="5"/>
       <c r="D31" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
@@ -2082,7 +2118,7 @@
     </row>
     <row r="38" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D38" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E38" s="15"/>
     </row>
@@ -2155,10 +2191,10 @@
     </row>
     <row r="44" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C44" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>204</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>205</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>10</v>
@@ -2172,7 +2208,7 @@
     </row>
     <row r="45" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D45" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -2228,7 +2264,7 @@
     </row>
     <row r="51" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D51" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E51" s="15"/>
     </row>
@@ -2242,10 +2278,10 @@
         <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>12</v>
@@ -2256,10 +2292,10 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G54" s="25" t="s">
         <v>12</v>
@@ -2270,10 +2306,10 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G55" s="25" t="s">
         <v>12</v>
@@ -2284,10 +2320,10 @@
     </row>
     <row r="56" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D56" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" s="25" t="s">
         <v>170</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>171</v>
       </c>
       <c r="G56" s="25" t="s">
         <v>12</v>
@@ -2298,7 +2334,7 @@
     </row>
     <row r="57" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D57" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2325,7 +2361,7 @@
     </row>
     <row r="60" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D60" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2388,7 +2424,7 @@
     </row>
     <row r="66" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D66" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2396,20 +2432,62 @@
         <v>74</v>
       </c>
     </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F69" s="25"/>
-    </row>
-    <row r="71" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="16" t="s">
+      <c r="D69" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="16" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C72" t="s">
-        <v>174</v>
-      </c>
       <c r="D72" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E72" s="25" t="s">
         <v>16</v>
@@ -2421,18 +2499,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D73" t="s">
-        <v>175</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>12</v>
+    <row r="73" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D73" s="25" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2442,10 +2511,10 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="D75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E75" s="25" t="s">
         <v>16</v>
@@ -2459,7 +2528,7 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E76" s="25" t="s">
         <v>16</v>
@@ -2473,7 +2542,7 @@
     </row>
     <row r="77" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D77" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2483,15 +2552,15 @@
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
-        <v>165</v>
-      </c>
-      <c r="D79" t="s">
-        <v>178</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="25" t="s">
@@ -2499,11 +2568,11 @@
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D80" t="s">
-        <v>179</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>16</v>
+      <c r="D80" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="F80" s="25" t="s">
         <v>12</v>
@@ -2512,117 +2581,126 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D81" s="25" t="s">
+    <row r="81" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D83" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="D84" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D85" s="25" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C83" t="s">
-        <v>47</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G83" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D84" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C86" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E86" t="s">
-        <v>81</v>
-      </c>
-      <c r="F86" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E85" s="14"/>
+    </row>
+    <row r="86" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>71</v>
+      </c>
       <c r="D87" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E87" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G87" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D88" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E88" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="D88" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G88" s="25" t="s">
+      <c r="F88" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H88" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D89" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="E89" s="14"/>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D89" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="25" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="90" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C91" t="s">
-        <v>71</v>
-      </c>
-      <c r="D91" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>84</v>
+        <v>59</v>
+      </c>
+      <c r="D91" t="s">
+        <v>179</v>
+      </c>
+      <c r="E91" t="s">
+        <v>171</v>
       </c>
       <c r="G91" s="25" t="s">
         <v>12</v>
@@ -2632,31 +2710,22 @@
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D92" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="25" t="s">
+      <c r="D92" t="s">
+        <v>180</v>
+      </c>
+      <c r="E92" t="s">
+        <v>118</v>
+      </c>
+      <c r="G92" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H92" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D93" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E93" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="25" t="s">
-        <v>12</v>
+    <row r="93" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D93" s="25" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2666,15 +2735,15 @@
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C95" t="s">
-        <v>59</v>
-      </c>
-      <c r="D95" t="s">
-        <v>180</v>
-      </c>
-      <c r="E95" t="s">
-        <v>172</v>
-      </c>
-      <c r="G95" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H95" s="25" t="s">
@@ -2682,62 +2751,60 @@
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D96" t="s">
-        <v>181</v>
-      </c>
-      <c r="E96" t="s">
-        <v>119</v>
-      </c>
-      <c r="G96" s="25" t="s">
+      <c r="C96" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H96" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D97" s="25" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="16" t="s">
-        <v>90</v>
+    <row r="97" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C98" t="s">
+        <v>227</v>
+      </c>
+      <c r="D98" t="s">
+        <v>226</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>16</v>
+      <c r="D99" t="s">
+        <v>228</v>
+      </c>
+      <c r="E99" t="s">
+        <v>229</v>
       </c>
       <c r="F99" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H99" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" s="25"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C100" t="s">
-        <v>95</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="E100" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="E100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
     </row>
     <row r="101" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B101" s="16" t="s">
@@ -2745,11 +2812,8 @@
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C102" t="s">
-        <v>228</v>
-      </c>
       <c r="D102" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E102" s="25" t="s">
         <v>16</v>
@@ -2757,26 +2821,18 @@
       <c r="F102" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H102" s="25" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C103" s="25"/>
       <c r="D103" t="s">
+        <v>231</v>
+      </c>
+      <c r="E103" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="E103" t="s">
-        <v>230</v>
-      </c>
-      <c r="F103" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="25"/>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
+      <c r="G103" s="25" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="105" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B105" s="16" t="s">
@@ -2784,56 +2840,78 @@
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D106" t="s">
-        <v>231</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F106" s="25" t="s">
+      <c r="C106" t="s">
+        <v>47</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C107" s="25"/>
-      <c r="D107" t="s">
-        <v>232</v>
-      </c>
-      <c r="E107" s="25" t="s">
-        <v>230</v>
+      <c r="D107" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="G107" s="25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="109" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C110" t="s">
-        <v>47</v>
-      </c>
-      <c r="D110" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E110" s="22" t="s">
+      <c r="H107" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D108" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G110" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" s="25" t="s">
-        <v>12</v>
+      <c r="E108" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G108" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D109" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F109" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D110" s="25" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
       <c r="D111" s="22" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G111" s="25" t="s">
         <v>12</v>
@@ -2844,10 +2922,10 @@
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D112" s="22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G112" s="25" t="s">
         <v>12</v>
@@ -2858,62 +2936,53 @@
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D113" s="22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F113" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G113" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H113" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D114" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G115" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D116" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G116" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" s="25" t="s">
-        <v>12</v>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D114" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D115" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D117" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E117" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G117" s="25" t="s">
+      <c r="C117" t="s">
+        <v>71</v>
+      </c>
+      <c r="D117" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H117" s="25" t="s">
@@ -2921,58 +2990,22 @@
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D118" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" s="25" t="s">
+      <c r="D118" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G118" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H118" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D119" s="25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C121" t="s">
-        <v>71</v>
-      </c>
-      <c r="D121" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E121" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F121" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D122" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E122" s="23" t="s">
+    <row r="119" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="G122" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" s="25" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="123" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2980,105 +3013,138 @@
         <v>120</v>
       </c>
     </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E125" s="25"/>
+    </row>
     <row r="127" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B127" s="16" t="s">
         <v>121</v>
       </c>
     </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C128" t="s">
+        <v>47</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E129" s="25"/>
-    </row>
-    <row r="131" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C132" t="s">
-        <v>47</v>
-      </c>
-      <c r="D132" s="24" t="s">
+      <c r="D129" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D130" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C131" t="s">
+        <v>71</v>
+      </c>
+      <c r="D131" t="s">
+        <v>215</v>
+      </c>
+      <c r="E131" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E132" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G132" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D133" s="24" t="s">
+      <c r="G131" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D132" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B133" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E133" s="24" t="s">
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E134" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F133" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D134" s="25" t="s">
+      <c r="F134" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D135" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E135" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G135" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D136" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G136" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D137" s="25" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C135" t="s">
+    <row r="138" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B138" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C139" t="s">
         <v>71</v>
       </c>
-      <c r="D135" t="s">
-        <v>216</v>
-      </c>
-      <c r="E135" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G135" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D136" s="25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C138" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E138" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F138" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H138" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D139" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E139" s="25" t="s">
-        <v>119</v>
+      <c r="D139" t="s">
+        <v>187</v>
+      </c>
+      <c r="E139" t="s">
+        <v>181</v>
       </c>
       <c r="G139" s="25" t="s">
         <v>12</v>
@@ -3088,63 +3154,81 @@
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D140" s="25" t="s">
-        <v>128</v>
+      <c r="D140" t="s">
+        <v>187</v>
       </c>
       <c r="E140" s="25" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G140" s="25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="141" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D141" s="25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C143" t="s">
-        <v>71</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="H140" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D141" t="s">
+        <v>187</v>
+      </c>
+      <c r="E141" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G141" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D142" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G142" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D143" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E143" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G143" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D144" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E144" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G144" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D145" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="E143" t="s">
-        <v>182</v>
-      </c>
-      <c r="G143" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H143" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D144" t="s">
-        <v>188</v>
-      </c>
-      <c r="E144" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G144" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H144" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D145" t="s">
-        <v>188</v>
-      </c>
       <c r="E145" s="25" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G145" s="25" t="s">
         <v>12</v>
@@ -3155,54 +3239,39 @@
     </row>
     <row r="146" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D146" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E146" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="G146" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H146" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D147" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E147" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="G147" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H147" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D148" s="25" t="s">
-        <v>188</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C148" t="s">
+        <v>191</v>
+      </c>
+      <c r="D148" t="s">
+        <v>189</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="G148" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H148" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D149" s="25" t="s">
-        <v>189</v>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D149" t="s">
+        <v>190</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G149" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H149" s="25" t="s">
@@ -3214,31 +3283,25 @@
         <v>219</v>
       </c>
     </row>
-    <row r="151" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="16" t="s">
+    <row r="151" spans="2:10" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D151" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E151" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B152" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C152" t="s">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C153" t="s">
+        <v>71</v>
+      </c>
+      <c r="D153" t="s">
         <v>192</v>
-      </c>
-      <c r="D152" t="s">
-        <v>190</v>
-      </c>
-      <c r="E152" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F152" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H152" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D153" t="s">
-        <v>191</v>
       </c>
       <c r="E153" s="25" t="s">
         <v>16</v>
@@ -3250,9 +3313,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D154" s="25" t="s">
-        <v>220</v>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D154" t="s">
+        <v>193</v>
+      </c>
+      <c r="E154" t="s">
+        <v>194</v>
+      </c>
+      <c r="G154" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -3262,15 +3336,15 @@
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C156" t="s">
-        <v>71</v>
-      </c>
-      <c r="D156" t="s">
-        <v>193</v>
+        <v>138</v>
+      </c>
+      <c r="D156" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F156" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G156" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H156" s="25" t="s">
@@ -3278,35 +3352,33 @@
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D157" t="s">
-        <v>194</v>
-      </c>
-      <c r="E157" t="s">
-        <v>195</v>
-      </c>
-      <c r="G157" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H157" s="25"/>
-      <c r="I157" s="25"/>
-      <c r="J157" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="16" t="s">
-        <v>133</v>
+      <c r="D157" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E157" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F157" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D158" s="25" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C159" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="D159" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E159" s="25" t="s">
         <v>134</v>
-      </c>
-      <c r="E159" s="25" t="s">
-        <v>135</v>
       </c>
       <c r="G159" s="25" t="s">
         <v>12</v>
@@ -3317,10 +3389,10 @@
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D160" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E160" s="25" t="s">
         <v>136</v>
-      </c>
-      <c r="E160" s="25" t="s">
-        <v>137</v>
       </c>
       <c r="F160" s="25" t="s">
         <v>12</v>
@@ -3334,67 +3406,75 @@
         <v>221</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C162" t="s">
-        <v>47</v>
-      </c>
+    <row r="162" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D162" s="25" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="G162" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H162" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D163" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="E163" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F163" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H163" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D164" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D165" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="E165" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F165" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B166" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="F162" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C164" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="D164" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="E164" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="F164" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C165" s="35"/>
+      <c r="D165" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E165" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H165" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I165" s="35"/>
+    </row>
+    <row r="166" spans="2:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D166" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E166" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="G166" s="36" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C167" s="35" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E167" s="35" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F167" s="35" t="s">
         <v>12</v>
@@ -3403,13 +3483,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C168" s="35"/>
+    <row r="168" spans="2:9" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D168" s="35" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E168" s="35" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="G168" s="35" t="s">
         <v>12</v>
@@ -3417,78 +3496,80 @@
       <c r="H168" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I168" s="35"/>
-    </row>
-    <row r="169" spans="2:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D169" s="36" t="s">
-        <v>315</v>
-      </c>
-      <c r="E169" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="G169" s="36" t="s">
-        <v>12</v>
+    </row>
+    <row r="169" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B169" s="16" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C170" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="D170" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="E170" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="F170" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H170" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D171" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="E171" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="G171" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H171" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B172" s="16" t="s">
+      <c r="C170" t="s">
+        <v>59</v>
+      </c>
+      <c r="D170" s="25" t="s">
         <v>141</v>
       </c>
+      <c r="E170" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G170" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D171" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E171" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G171" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H171" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D172" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E172" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F172" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H172" s="25" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C173" t="s">
-        <v>59</v>
-      </c>
       <c r="D173" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E173" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G173" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C174" t="s">
+        <v>71</v>
+      </c>
+      <c r="D174" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E174" s="25" t="s">
         <v>142</v>
-      </c>
-      <c r="E173" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="G173" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H173" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D174" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E174" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="G174" s="25" t="s">
         <v>12</v>
@@ -3499,12 +3580,12 @@
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D175" s="25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F175" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G175" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H175" s="25" t="s">
@@ -3513,28 +3594,25 @@
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D176" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E176" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F176" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H176" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D177" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E177" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E176" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G176" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H176" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C177" t="s">
-        <v>71</v>
-      </c>
-      <c r="D177" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E177" s="25" t="s">
-        <v>143</v>
-      </c>
       <c r="G177" s="25" t="s">
         <v>12</v>
       </c>
@@ -3542,83 +3620,140 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D178" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E178" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G178" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H178" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D179" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E179" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F179" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H179" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D180" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E180" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G180" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H180" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D181" s="25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="16" t="s">
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C180" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="D180" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="E180" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="F180" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H180" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I180" s="16"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C181" s="36"/>
+      <c r="D181" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="E181" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="F181" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G181" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H181" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D182" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="E182" s="36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C183" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D183" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="E183" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="F183" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H183" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K183" s="36"/>
+    </row>
+    <row r="184" spans="2:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D184" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="E184" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="F184" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H184" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B185" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="186" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B186" s="16" t="s">
+    <row r="186" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D186" s="25" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E186" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F186" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H186" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D187" s="25" t="s">
         <v>153</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F187" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G187" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H187" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D188" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G188" s="25" t="s">
         <v>12</v>
@@ -3627,37 +3762,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D189" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G189" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F189" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H189" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D190" s="25" t="s">
         <v>158</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F190" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G190" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H190" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D191" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E191" s="25" t="s">
         <v>160</v>
@@ -3669,64 +3804,65 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D192" s="25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E192" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G192" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F192" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H192" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D193" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E193" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F193" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H193" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="194" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B194" s="16" t="s">
+    <row r="193" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B194" s="26"/>
+      <c r="C194" s="26" t="s">
         <v>233</v>
+      </c>
+      <c r="D194" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="E194" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G194" s="26" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B195" s="26"/>
       <c r="C195" s="26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D195" s="26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E195" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="G195" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F195" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B196" s="26"/>
       <c r="C196" s="26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D196" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="E196" s="26" t="s">
         <v>238</v>
-      </c>
-      <c r="E196" s="26" t="s">
-        <v>239</v>
       </c>
       <c r="F196" s="26" t="s">
         <v>12</v>
@@ -3734,14 +3870,12 @@
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B197" s="26"/>
-      <c r="C197" s="26" t="s">
-        <v>240</v>
-      </c>
+      <c r="C197" s="26"/>
       <c r="D197" s="26" t="s">
         <v>241</v>
       </c>
       <c r="E197" s="26" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F197" s="26" t="s">
         <v>12</v>
@@ -3749,14 +3883,16 @@
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B198" s="26"/>
-      <c r="C198" s="26"/>
+      <c r="C198" s="26" t="s">
+        <v>243</v>
+      </c>
       <c r="D198" s="26" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E198" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="F198" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G198" s="26" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3766,25 +3902,23 @@
         <v>244</v>
       </c>
       <c r="D199" s="26" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="E199" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="G199" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F199" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B200" s="26"/>
-      <c r="C200" s="26" t="s">
-        <v>245</v>
-      </c>
+      <c r="C200" s="26"/>
       <c r="D200" s="26" t="s">
         <v>246</v>
       </c>
       <c r="E200" s="26" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F200" s="26" t="s">
         <v>12</v>
@@ -3792,12 +3926,14 @@
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
+      <c r="C201" s="26" t="s">
+        <v>248</v>
+      </c>
       <c r="D201" s="26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E201" s="26" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F201" s="26" t="s">
         <v>12</v>
@@ -3806,13 +3942,13 @@
     <row r="202" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B202" s="26"/>
       <c r="C202" s="26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E202" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F202" s="26" t="s">
         <v>12</v>
@@ -3821,13 +3957,13 @@
     <row r="203" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B203" s="26"/>
       <c r="C203" s="26" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D203" s="26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E203" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F203" s="26" t="s">
         <v>12</v>
@@ -3839,41 +3975,41 @@
         <v>253</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E204" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F204" s="26" t="s">
         <v>12</v>
       </c>
+      <c r="H204" s="26"/>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B205" s="26"/>
       <c r="C205" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E205" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F205" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H205" s="26"/>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B206" s="26"/>
       <c r="C206" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D206" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="D206" s="26" t="s">
-        <v>257</v>
-      </c>
       <c r="E206" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F206" s="26" t="s">
         <v>12</v>
@@ -3881,50 +4017,49 @@
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B207" s="26"/>
-      <c r="C207" s="26" t="s">
+      <c r="C207" s="26"/>
+      <c r="D207" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="D207" s="26" t="s">
-        <v>257</v>
-      </c>
       <c r="E207" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="F207" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G207" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B208" s="26"/>
-      <c r="C208" s="26"/>
+      <c r="C208" s="26" t="s">
+        <v>259</v>
+      </c>
       <c r="D208" s="26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E208" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G208" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B209" s="26"/>
-      <c r="C209" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="D209" s="26" t="s">
+    <row r="209" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B209" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="E209" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="G209" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B210" s="16" t="s">
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D210" s="27" t="s">
         <v>262</v>
+      </c>
+      <c r="E210" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F210" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H210" s="27" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.15">
@@ -3932,29 +4067,29 @@
         <v>263</v>
       </c>
       <c r="E211" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="F211" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B212" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D213" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="E213" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F211" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H211" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D212" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="E212" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="F212" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="213" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B213" s="16" t="s">
-        <v>266</v>
+      <c r="F213" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H213" s="30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.15">
@@ -3962,9 +4097,9 @@
         <v>267</v>
       </c>
       <c r="E214" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F214" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G214" s="30" t="s">
         <v>12</v>
       </c>
       <c r="H214" s="30" t="s">
@@ -3973,11 +4108,12 @@
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D215" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E215" s="28" t="s">
-        <v>129</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F215" s="27"/>
       <c r="G215" s="30" t="s">
         <v>12</v>
       </c>
@@ -3990,24 +4126,23 @@
         <v>268</v>
       </c>
       <c r="E216" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F216" s="27"/>
+        <v>269</v>
+      </c>
       <c r="G216" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H216" s="30" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D217" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="E217" s="28" t="s">
+      <c r="D217" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="G217" s="30" t="s">
+      <c r="E217" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F217" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H217" s="30" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4016,23 +4151,23 @@
         <v>271</v>
       </c>
       <c r="E218" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="F218" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D219" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="E219" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F218" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H218" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D219" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="E219" s="29" t="s">
-        <v>273</v>
-      </c>
       <c r="F219" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H219" s="30" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4041,9 +4176,9 @@
         <v>274</v>
       </c>
       <c r="E220" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F220" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G220" s="30" t="s">
         <v>12</v>
       </c>
       <c r="H220" s="30" t="s">
@@ -4052,48 +4187,49 @@
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D221" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E221" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G221" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H221" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B222" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C223" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="D223" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="E221" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="G221" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H221" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D222" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="E222" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="G222" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H222" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="223" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B223" s="16" t="s">
-        <v>295</v>
+      <c r="E223" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G223" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H223" s="35" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C224" s="35" t="s">
-        <v>290</v>
-      </c>
+      <c r="C224" s="35"/>
       <c r="D224" s="35" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E224" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="G224" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F224" s="35" t="s">
         <v>12</v>
       </c>
       <c r="H224" s="35" t="s">
@@ -4103,7 +4239,7 @@
     <row r="225" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C225" s="35"/>
       <c r="D225" s="35" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E225" s="35" t="s">
         <v>16</v>
@@ -4111,36 +4247,36 @@
       <c r="F225" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H225" s="35" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="226" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C226" s="35"/>
-      <c r="D226" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="E226" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F226" s="35" t="s">
-        <v>12</v>
-      </c>
+      <c r="D226" s="31"/>
+      <c r="E226" s="31"/>
+      <c r="F226" s="30"/>
     </row>
     <row r="227" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D227" s="31"/>
-      <c r="E227" s="31"/>
-      <c r="F227" s="30"/>
+      <c r="C227" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D227" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E227" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G227" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H227" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="228" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C228" s="35" t="s">
-        <v>291</v>
-      </c>
+      <c r="C228" s="35"/>
       <c r="D228" s="35" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E228" s="35" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G228" s="35" t="s">
         <v>12</v>
@@ -4152,15 +4288,12 @@
     <row r="229" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C229" s="35"/>
       <c r="D229" s="35" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E229" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="G229" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H229" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F229" s="35" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4170,42 +4303,45 @@
         <v>281</v>
       </c>
       <c r="E230" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G230" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H230" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D231" s="32"/>
+      <c r="E231" s="32"/>
+    </row>
+    <row r="232" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C232" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="D232" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="E232" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F230" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="231" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C231" s="35"/>
-      <c r="D231" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="E231" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="G231" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H231" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="232" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D232" s="32"/>
-      <c r="E232" s="32"/>
+      <c r="F232" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H232" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="233" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C233" s="35" t="s">
-        <v>292</v>
-      </c>
+      <c r="C233" s="35"/>
       <c r="D233" s="35" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E233" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F233" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G233" s="35" t="s">
         <v>12</v>
       </c>
       <c r="H233" s="35" t="s">
@@ -4215,10 +4351,10 @@
     <row r="234" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C234" s="35"/>
       <c r="D234" s="35" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E234" s="35" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G234" s="35" t="s">
         <v>12</v>
@@ -4230,40 +4366,37 @@
     <row r="235" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C235" s="35"/>
       <c r="D235" s="35" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E235" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="G235" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H235" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="F235" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="236" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C236" s="35"/>
-      <c r="D236" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="E236" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="F236" s="35" t="s">
-        <v>12</v>
-      </c>
+      <c r="D236" s="33"/>
+      <c r="E236" s="33"/>
     </row>
     <row r="237" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D237" s="33"/>
-      <c r="E237" s="33"/>
+      <c r="C237" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D237" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E237" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G237" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="238" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C238" s="35" t="s">
-        <v>293</v>
-      </c>
+      <c r="C238" s="35"/>
       <c r="D238" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E238" s="35" t="s">
         <v>285</v>
@@ -4275,10 +4408,10 @@
     <row r="239" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C239" s="35"/>
       <c r="D239" s="35" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E239" s="35" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G239" s="35" t="s">
         <v>12</v>
@@ -4287,10 +4420,10 @@
     <row r="240" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C240" s="35"/>
       <c r="D240" s="35" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E240" s="35" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G240" s="35" t="s">
         <v>12</v>
@@ -4299,12 +4432,12 @@
     <row r="241" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C241" s="35"/>
       <c r="D241" s="35" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="E241" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="G241" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="F241" s="35" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4314,49 +4447,49 @@
         <v>287</v>
       </c>
       <c r="E242" s="35" t="s">
-        <v>273</v>
+        <v>16</v>
       </c>
       <c r="F242" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C243" s="35"/>
-      <c r="D243" s="35" t="s">
+      <c r="D243" s="34"/>
+      <c r="E243" s="34"/>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C244" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="D244" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="E243" s="35" t="s">
+      <c r="E244" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F243" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D244" s="34"/>
-      <c r="E244" s="34"/>
+      <c r="F244" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C245" s="35" t="s">
-        <v>294</v>
-      </c>
+      <c r="C245" s="35"/>
       <c r="D245" s="35" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E245" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F245" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G245" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C246" s="35"/>
       <c r="D246" s="35" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E246" s="35" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G246" s="35" t="s">
         <v>12</v>
@@ -4365,84 +4498,88 @@
     <row r="247" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C247" s="35"/>
       <c r="D247" s="35" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E247" s="35" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G247" s="35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C248" s="35"/>
-      <c r="D248" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="E248" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="G248" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="249" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B249" s="16" t="s">
+    <row r="248" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B248" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C249" s="36" t="s">
         <v>305</v>
       </c>
+      <c r="D249" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="E249" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F249" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H249" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C250" s="36" t="s">
-        <v>306</v>
-      </c>
+      <c r="C250" s="36"/>
       <c r="D250" s="36" t="s">
         <v>307</v>
       </c>
       <c r="E250" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="F250" s="36"/>
+      <c r="G250" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H250" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D251" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="E251" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F250" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H250" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C251" s="36"/>
-      <c r="D251" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="E251" s="36" t="s">
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C252" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="F251" s="36"/>
-      <c r="G251" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H251" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D252" s="36" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E252" s="36" t="s">
         <v>16</v>
       </c>
+      <c r="F252" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H252" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C253" s="36" t="s">
-        <v>310</v>
-      </c>
+      <c r="C253" s="36"/>
       <c r="D253" s="36" t="s">
         <v>311</v>
       </c>
       <c r="E253" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F253" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="F253" s="36"/>
+      <c r="G253" s="36" t="s">
         <v>12</v>
       </c>
       <c r="H253" s="36" t="s">
@@ -4450,38 +4587,22 @@
       </c>
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C254" s="36"/>
       <c r="D254" s="36" t="s">
         <v>312</v>
       </c>
       <c r="E254" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="F254" s="36"/>
-      <c r="G254" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H254" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D255" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="E255" s="36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="G257" s="36"/>
-    </row>
-    <row r="258" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E258" s="36"/>
-      <c r="F258" s="35"/>
-    </row>
-    <row r="259" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D259" s="36"/>
+    <row r="256" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G256" s="36"/>
+    </row>
+    <row r="257" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E257" s="36"/>
+      <c r="F257" s="35"/>
+    </row>
+    <row r="258" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D258" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/art/美术量/3D/动作/特效资源总表.xlsx
+++ b/art/美术量/3D/动作/特效资源总表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="349">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1186,18 +1186,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ultmijiale4pre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ultmijiale4pre_wuqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wp_weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1216,6 +1208,97 @@
   <si>
     <t>magicFireColumnp(命中)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三头犬火大招炫耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utlsaibulesi4pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackFireStab（命中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方胸口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三头犬暗大招炫耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utlsaibulesi5pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackEarthStab（命中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utlchange1pre</t>
+  </si>
+  <si>
+    <t>utlchange1pre_rhand</t>
+  </si>
+  <si>
+    <t>utlchange1pre_Spine</t>
+  </si>
+  <si>
+    <t>Bip001 Spine</t>
+  </si>
+  <si>
+    <t>嫦娥光大招炫耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫦娥光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金之灵1-2</t>
+  </si>
+  <si>
+    <t>黄金之灵2-1</t>
+  </si>
+  <si>
+    <t>黄金之灵2-2</t>
+  </si>
+  <si>
+    <t>黄金之灵1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackMetalStab（命中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackMetalSmash（命中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicMetalBall（命中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultmijiale1pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultmijiale1pre_wuqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultchange1Hit</t>
+  </si>
+  <si>
+    <t>胸口</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1325,6 +1408,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K258"/>
+  <dimension ref="B1:K268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="K183" sqref="K183"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="E271" sqref="E271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3008,63 +3094,68 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="16" t="s">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C120" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="D120" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="E120" s="36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C121" s="36"/>
+      <c r="D121" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="E121" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C122" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D122" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="E122" s="36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D123" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="E123" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E125" s="25"/>
-    </row>
-    <row r="127" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="16" t="s">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E128" s="25"/>
+    </row>
+    <row r="130" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B130" s="16" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C128" t="s">
-        <v>47</v>
-      </c>
-      <c r="D128" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E128" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G128" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D129" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F129" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D130" s="25" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C131" t="s">
-        <v>71</v>
-      </c>
-      <c r="D131" t="s">
-        <v>215</v>
-      </c>
-      <c r="E131" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E131" s="24" t="s">
         <v>123</v>
       </c>
       <c r="G131" s="25" t="s">
@@ -3074,147 +3165,141 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D132" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="16" t="s">
-        <v>125</v>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D132" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E132" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D133" s="25" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C134" t="s">
+        <v>71</v>
+      </c>
+      <c r="D134" t="s">
+        <v>215</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G134" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D135" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C137" t="s">
         <v>9</v>
       </c>
-      <c r="D134" s="25" t="s">
+      <c r="D137" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E134" s="25" t="s">
+      <c r="E137" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F134" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D135" s="25" t="s">
+      <c r="F137" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D138" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E135" s="25" t="s">
+      <c r="E138" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="G135" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D136" s="25" t="s">
+      <c r="G138" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D139" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E136" s="25" t="s">
+      <c r="E139" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="G136" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D137" s="25" t="s">
+      <c r="G139" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D140" s="25" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="138" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="16" t="s">
+    <row r="141" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C139" t="s">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C142" t="s">
         <v>71</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D142" t="s">
         <v>187</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E142" t="s">
         <v>181</v>
       </c>
-      <c r="G139" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H139" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D140" t="s">
+      <c r="G142" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D143" t="s">
         <v>187</v>
       </c>
-      <c r="E140" s="25" t="s">
+      <c r="E143" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="G140" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H140" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D141" t="s">
+      <c r="G143" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D144" t="s">
         <v>187</v>
       </c>
-      <c r="E141" s="25" t="s">
+      <c r="E144" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="G141" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H141" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D142" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E142" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="G142" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H142" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D143" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E143" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="G143" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H143" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D144" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E144" s="25" t="s">
-        <v>186</v>
       </c>
       <c r="G144" s="25" t="s">
         <v>12</v>
@@ -3225,10 +3310,10 @@
     </row>
     <row r="145" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D145" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="G145" s="25" t="s">
         <v>12</v>
@@ -3239,112 +3324,116 @@
     </row>
     <row r="146" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D146" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G146" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D147" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E147" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G147" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D148" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E148" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G148" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D149" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="147" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="16" t="s">
+    <row r="150" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B150" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C148" t="s">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C151" t="s">
         <v>191</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D151" t="s">
         <v>189</v>
       </c>
-      <c r="E148" s="25" t="s">
+      <c r="E151" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F148" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H148" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D149" t="s">
+      <c r="F151" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D152" t="s">
         <v>190</v>
       </c>
-      <c r="E149" s="25" t="s">
+      <c r="E152" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F149" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H149" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D150" s="25" t="s">
+      <c r="F152" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D153" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="151" spans="2:10" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D151" s="36" t="s">
+    <row r="154" spans="2:10" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D154" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="E151" s="36" t="s">
+      <c r="E154" s="36" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="152" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C153" t="s">
-        <v>71</v>
-      </c>
-      <c r="D153" t="s">
-        <v>192</v>
-      </c>
-      <c r="E153" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F153" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H153" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D154" t="s">
-        <v>193</v>
-      </c>
-      <c r="E154" t="s">
-        <v>194</v>
-      </c>
-      <c r="G154" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H154" s="25"/>
-      <c r="I154" s="25"/>
-      <c r="J154" s="25" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="155" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B155" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C156" t="s">
-        <v>138</v>
-      </c>
-      <c r="D156" s="25" t="s">
-        <v>133</v>
+        <v>71</v>
+      </c>
+      <c r="D156" t="s">
+        <v>192</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G156" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H156" s="25" t="s">
@@ -3352,30 +3441,32 @@
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D157" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E157" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F157" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H157" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D158" s="25" t="s">
-        <v>220</v>
+      <c r="D157" t="s">
+        <v>193</v>
+      </c>
+      <c r="E157" t="s">
+        <v>194</v>
+      </c>
+      <c r="G157" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B158" s="16" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C159" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E159" s="25" t="s">
         <v>134</v>
@@ -3389,7 +3480,7 @@
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D160" s="25" t="s">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="E160" s="25" t="s">
         <v>136</v>
@@ -3403,173 +3494,164 @@
     </row>
     <row r="161" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D161" s="25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C162" t="s">
+        <v>47</v>
+      </c>
+      <c r="D162" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E162" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G162" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H162" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D163" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E163" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F163" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D164" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="162" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D162" s="25" t="s">
+    <row r="165" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D165" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="E162" s="25" t="s">
+      <c r="E165" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="F162" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B163" s="16" t="s">
+      <c r="F165" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B166" s="16" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C164" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="D164" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="E164" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="F164" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H164" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C165" s="35"/>
-      <c r="D165" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E165" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H165" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I165" s="35"/>
-    </row>
-    <row r="166" spans="2:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D166" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="E166" s="36" t="s">
-        <v>315</v>
-      </c>
-      <c r="G166" s="36" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C167" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="D167" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="E167" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="F167" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C168" s="35"/>
+      <c r="D168" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E168" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H168" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I168" s="35"/>
+    </row>
+    <row r="169" spans="2:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D169" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E169" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="G169" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C170" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="D167" s="35" t="s">
+      <c r="D170" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="E167" s="35" t="s">
+      <c r="E170" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="F167" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H167" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D168" s="35" t="s">
+      <c r="F170" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D171" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="E168" s="35" t="s">
+      <c r="E171" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="G168" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H168" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B169" s="16" t="s">
+      <c r="G171" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H171" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B172" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C170" t="s">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C173" t="s">
         <v>59</v>
       </c>
-      <c r="D170" s="25" t="s">
+      <c r="D173" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="E170" s="25" t="s">
+      <c r="E173" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="G170" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H170" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D171" s="25" t="s">
+      <c r="G173" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D174" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="E171" s="25" t="s">
+      <c r="E174" s="25" t="s">
         <v>143</v>
-      </c>
-      <c r="G171" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H171" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D172" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E172" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F172" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H172" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D173" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E173" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G173" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H173" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C174" t="s">
-        <v>71</v>
-      </c>
-      <c r="D174" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E174" s="25" t="s">
-        <v>142</v>
       </c>
       <c r="G174" s="25" t="s">
         <v>12</v>
@@ -3580,12 +3662,12 @@
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D175" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="G175" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F175" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H175" s="25" t="s">
@@ -3594,177 +3676,180 @@
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D176" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E176" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G176" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H176" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C177" t="s">
+        <v>71</v>
+      </c>
+      <c r="D177" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E177" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G177" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H177" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D178" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E178" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G178" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H178" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D179" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E176" s="25" t="s">
+      <c r="E179" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="F176" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H176" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D177" s="25" t="s">
+      <c r="F179" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H179" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D180" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E177" s="25" t="s">
+      <c r="E180" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="G177" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H177" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D178" s="25" t="s">
+      <c r="G180" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H180" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D181" s="25" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="179" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B179" s="16" t="s">
+    <row r="182" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B182" s="16" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C180" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="D180" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="E180" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="F180" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H180" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I180" s="16"/>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C181" s="36"/>
-      <c r="D181" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="E181" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="F181" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G181" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H181" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="2:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D182" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="E182" s="36" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C183" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="D183" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="E183" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="F183" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H183" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I183" s="16"/>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C184" s="36"/>
+      <c r="D184" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="E184" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="F184" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H184" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D185" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="E185" s="36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C186" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="D186" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="E186" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="F186" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H186" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K186" s="36"/>
+    </row>
+    <row r="187" spans="2:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D187" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="D183" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="E183" s="36" t="s">
+      <c r="E187" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="F183" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G183" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H183" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K183" s="36"/>
-    </row>
-    <row r="184" spans="2:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D184" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="E184" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="F184" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H184" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B185" s="16" t="s">
+      <c r="F187" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H187" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B188" s="16" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D186" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="E186" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F186" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H186" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D187" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E187" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="G187" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H187" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D188" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E188" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="G188" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H188" s="25" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D189" s="25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E189" s="25" t="s">
         <v>136</v>
@@ -3778,10 +3863,10 @@
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D190" s="25" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G190" s="25" t="s">
         <v>12</v>
@@ -3792,10 +3877,10 @@
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D191" s="25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E191" s="25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G191" s="25" t="s">
         <v>12</v>
@@ -3806,7 +3891,7 @@
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D192" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E192" s="25" t="s">
         <v>136</v>
@@ -3818,149 +3903,108 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B193" s="16" t="s">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D193" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E193" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G193" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H193" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D194" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E194" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G194" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H194" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D195" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E195" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F195" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H195" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C196" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="D196" s="37" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C197" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="D197" s="37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C198" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D198" s="37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C199" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="D199" s="37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="201" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B201" s="16" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B194" s="26"/>
-      <c r="C194" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="D194" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="E194" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="G194" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B195" s="26"/>
-      <c r="C195" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="D195" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="E195" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F195" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B196" s="26"/>
-      <c r="C196" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="D196" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="E196" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F196" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B197" s="26"/>
-      <c r="C197" s="26"/>
-      <c r="D197" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="E197" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="F197" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B198" s="26"/>
-      <c r="C198" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="D198" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="E198" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="G198" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B199" s="26"/>
-      <c r="C199" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="D199" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="E199" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F199" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B200" s="26"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="E200" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="F200" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B201" s="26"/>
-      <c r="C201" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="D201" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="E201" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F201" s="26" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B202" s="26"/>
       <c r="C202" s="26" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E202" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F202" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G202" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B203" s="26"/>
       <c r="C203" s="26" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D203" s="26" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E203" s="26" t="s">
         <v>238</v>
@@ -3972,10 +4016,10 @@
     <row r="204" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B204" s="26"/>
       <c r="C204" s="26" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E204" s="26" t="s">
         <v>238</v>
@@ -3983,18 +4027,15 @@
       <c r="F204" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H204" s="26"/>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B205" s="26"/>
-      <c r="C205" s="26" t="s">
-        <v>255</v>
-      </c>
+      <c r="C205" s="26"/>
       <c r="D205" s="26" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E205" s="26" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F205" s="26" t="s">
         <v>12</v>
@@ -4003,325 +4044,347 @@
     <row r="206" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B206" s="26"/>
       <c r="C206" s="26" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="E206" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F206" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G206" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B207" s="26"/>
-      <c r="C207" s="26"/>
+      <c r="C207" s="26" t="s">
+        <v>244</v>
+      </c>
       <c r="D207" s="26" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E207" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="G207" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F207" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B208" s="26"/>
-      <c r="C208" s="26" t="s">
+      <c r="C208" s="26"/>
+      <c r="D208" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E208" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="F208" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B209" s="26"/>
+      <c r="C209" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D209" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E209" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F209" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B210" s="26"/>
+      <c r="C210" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D210" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="E210" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F210" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B211" s="26"/>
+      <c r="C211" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D211" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E211" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F211" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B212" s="26"/>
+      <c r="C212" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="D212" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="E212" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F212" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H212" s="26"/>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B213" s="26"/>
+      <c r="C213" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D213" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="E213" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F213" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B214" s="26"/>
+      <c r="C214" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D214" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="E214" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F214" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B215" s="26"/>
+      <c r="C215" s="26"/>
+      <c r="D215" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="E215" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G215" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B216" s="26"/>
+      <c r="C216" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D208" s="26" t="s">
+      <c r="D216" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="E208" s="26" t="s">
+      <c r="E216" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="G208" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="209" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B209" s="16" t="s">
+      <c r="G216" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B217" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D210" s="27" t="s">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D218" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="E210" s="27" t="s">
+      <c r="E218" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F210" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H210" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D211" s="27" t="s">
+      <c r="F218" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H218" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D219" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="E211" s="27" t="s">
+      <c r="E219" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="F211" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="212" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B212" s="16" t="s">
+      <c r="F219" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B220" s="16" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D213" s="28" t="s">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D221" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="E213" s="28" t="s">
+      <c r="E221" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F213" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H213" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D214" s="28" t="s">
+      <c r="F221" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H221" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D222" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="E214" s="28" t="s">
+      <c r="E222" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="G214" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H214" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D215" s="28" t="s">
+      <c r="G222" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H222" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D223" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="E215" s="28" t="s">
+      <c r="E223" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F215" s="27"/>
-      <c r="G215" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H215" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D216" s="28" t="s">
+      <c r="F223" s="27"/>
+      <c r="G223" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H223" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D224" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="E216" s="28" t="s">
+      <c r="E224" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="G216" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D217" s="29" t="s">
+      <c r="G224" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D225" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="E217" s="29" t="s">
+      <c r="E225" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F217" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H217" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D218" s="29" t="s">
+      <c r="F225" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H225" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D226" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="E218" s="29" t="s">
+      <c r="E226" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="F218" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D219" s="30" t="s">
+      <c r="F226" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D227" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="E219" s="30" t="s">
+      <c r="E227" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F219" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H219" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D220" s="30" t="s">
+      <c r="F227" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H227" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D228" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="E220" s="30" t="s">
+      <c r="E228" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="G220" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H220" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D221" s="30" t="s">
+      <c r="G228" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H228" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D229" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="E221" s="30" t="s">
+      <c r="E229" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="G221" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H221" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="222" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B222" s="16" t="s">
+      <c r="G229" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H229" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B230" s="16" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C223" s="35" t="s">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C231" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="D223" s="35" t="s">
+      <c r="D231" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="E223" s="35" t="s">
+      <c r="E231" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="G223" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H223" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C224" s="35"/>
-      <c r="D224" s="35" t="s">
+      <c r="G231" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H231" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C232" s="35"/>
+      <c r="D232" s="35" t="s">
         <v>277</v>
-      </c>
-      <c r="E224" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F224" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H224" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="225" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C225" s="35"/>
-      <c r="D225" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="E225" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F225" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="226" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D226" s="31"/>
-      <c r="E226" s="31"/>
-      <c r="F226" s="30"/>
-    </row>
-    <row r="227" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C227" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="D227" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="E227" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="G227" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H227" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="228" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C228" s="35"/>
-      <c r="D228" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="E228" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="G228" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H228" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="229" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C229" s="35"/>
-      <c r="D229" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="E229" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F229" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="230" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C230" s="35"/>
-      <c r="D230" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="E230" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="G230" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H230" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="231" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D231" s="32"/>
-      <c r="E231" s="32"/>
-    </row>
-    <row r="232" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C232" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="D232" s="35" t="s">
-        <v>282</v>
       </c>
       <c r="E232" s="35" t="s">
         <v>16</v>
@@ -4333,151 +4396,158 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C233" s="35"/>
       <c r="D233" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="E233" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F233" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D234" s="31"/>
+      <c r="E234" s="31"/>
+      <c r="F234" s="30"/>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C235" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D235" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="E233" s="35" t="s">
+      <c r="E235" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="G233" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H233" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="234" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C234" s="35"/>
-      <c r="D234" s="35" t="s">
+      <c r="G235" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H235" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C236" s="35"/>
+      <c r="D236" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="E234" s="35" t="s">
+      <c r="E236" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="G234" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H234" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="235" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C235" s="35"/>
-      <c r="D235" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="E235" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="F235" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="236" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D236" s="33"/>
-      <c r="E236" s="33"/>
-    </row>
-    <row r="237" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C237" s="35" t="s">
-        <v>292</v>
-      </c>
+      <c r="G236" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H236" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C237" s="35"/>
       <c r="D237" s="35" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E237" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="G237" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="238" spans="3:8" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="F237" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C238" s="35"/>
       <c r="D238" s="35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E238" s="35" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G238" s="35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="239" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C239" s="35"/>
-      <c r="D239" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="E239" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="G239" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="240" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C240" s="35"/>
+      <c r="H238" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D239" s="32"/>
+      <c r="E239" s="32"/>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C240" s="35" t="s">
+        <v>291</v>
+      </c>
       <c r="D240" s="35" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E240" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="G240" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F240" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H240" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C241" s="35"/>
       <c r="D241" s="35" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E241" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="F241" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G241" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H241" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C242" s="35"/>
       <c r="D242" s="35" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E242" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F242" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G242" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H242" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D243" s="34"/>
-      <c r="E243" s="34"/>
+      <c r="C243" s="35"/>
+      <c r="D243" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="E243" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="F243" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C244" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="D244" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="E244" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F244" s="35" t="s">
-        <v>12</v>
-      </c>
+      <c r="D244" s="33"/>
+      <c r="E244" s="33"/>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C245" s="35"/>
+      <c r="C245" s="35" t="s">
+        <v>292</v>
+      </c>
       <c r="D245" s="35" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E245" s="35" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G245" s="35" t="s">
         <v>12</v>
@@ -4486,10 +4556,10 @@
     <row r="246" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C246" s="35"/>
       <c r="D246" s="35" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E246" s="35" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="G246" s="35" t="s">
         <v>12</v>
@@ -4498,111 +4568,242 @@
     <row r="247" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C247" s="35"/>
       <c r="D247" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E247" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G247" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C248" s="35"/>
+      <c r="D248" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="E248" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G248" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C249" s="35"/>
+      <c r="D249" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="E249" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="F249" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C250" s="35"/>
+      <c r="D250" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="E250" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F250" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D251" s="34"/>
+      <c r="E251" s="34"/>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C252" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="D252" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E252" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F252" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C253" s="35"/>
+      <c r="D253" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E253" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G253" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C254" s="35"/>
+      <c r="D254" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="E254" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G254" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C255" s="35"/>
+      <c r="D255" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="E247" s="35" t="s">
+      <c r="E255" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="G247" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="248" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B248" s="16" t="s">
+      <c r="G255" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B256" s="16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C249" s="36" t="s">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C257" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="D249" s="36" t="s">
+      <c r="D257" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="E249" s="36" t="s">
+      <c r="E257" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F249" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H249" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C250" s="36"/>
-      <c r="D250" s="36" t="s">
+      <c r="F257" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H257" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C258" s="36"/>
+      <c r="D258" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="E250" s="36" t="s">
+      <c r="E258" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="F250" s="36"/>
-      <c r="G250" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H250" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D251" s="36" t="s">
+      <c r="F258" s="36"/>
+      <c r="G258" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H258" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D259" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="E251" s="36" t="s">
+      <c r="E259" s="36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C252" s="36" t="s">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C260" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="D252" s="36" t="s">
+      <c r="D260" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="E252" s="36" t="s">
+      <c r="E260" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F252" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H252" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C253" s="36"/>
-      <c r="D253" s="36" t="s">
+      <c r="F260" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H260" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C261" s="36"/>
+      <c r="D261" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="E253" s="36" t="s">
+      <c r="E261" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="F253" s="36"/>
-      <c r="G253" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H253" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D254" s="36" t="s">
+      <c r="F261" s="36"/>
+      <c r="G261" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H261" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D262" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="E254" s="36" t="s">
+      <c r="E262" s="36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="G256" s="36"/>
-    </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E257" s="36"/>
-      <c r="F257" s="35"/>
-    </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D258" s="36"/>
+    <row r="263" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B263" s="16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C264" t="s">
+        <v>336</v>
+      </c>
+      <c r="D264" t="s">
+        <v>332</v>
+      </c>
+      <c r="E264" t="s">
+        <v>16</v>
+      </c>
+      <c r="G264" s="36"/>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D265" t="s">
+        <v>333</v>
+      </c>
+      <c r="E265" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F265" s="35"/>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D266" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="E266" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D267" t="s">
+        <v>334</v>
+      </c>
+      <c r="E267" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C268" s="39"/>
+      <c r="D268" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="E268" s="39" t="s">
+        <v>348</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/art/美术量/3D/动作/特效资源总表.xlsx
+++ b/art/美术量/3D/动作/特效资源总表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="356">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1299,6 +1299,27 @@
   </si>
   <si>
     <t>胸口</t>
+  </si>
+  <si>
+    <t>射手座大招炫耀2</t>
+  </si>
+  <si>
+    <t>utlsheshouzuo3pre</t>
+  </si>
+  <si>
+    <t>ultsheshouzuo3pre_lhand</t>
+  </si>
+  <si>
+    <t>Bip002 L Hand</t>
+  </si>
+  <si>
+    <t>attackWaterStab（命中）</t>
+  </si>
+  <si>
+    <t>射手座大招炫耀1</t>
+  </si>
+  <si>
+    <t>utlsheshouzuo3pre1</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1411,6 +1432,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1716,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K268"/>
+  <dimension ref="B1:K272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="E271" sqref="E271"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3140,295 +3163,325 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E128" s="25"/>
-    </row>
-    <row r="130" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="16" t="s">
+    <row r="127" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="D127" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="E127" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="41"/>
+      <c r="D128" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="E128" s="41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="41"/>
+      <c r="D129" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E129" s="41" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C130" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="D130" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="E130" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B131" s="39"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="E131" s="41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C132" s="41"/>
+      <c r="D132" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="E132" s="41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="41"/>
+      <c r="D133" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="E133" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C131" t="s">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C135" t="s">
         <v>47</v>
       </c>
-      <c r="D131" s="24" t="s">
+      <c r="D135" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E131" s="24" t="s">
+      <c r="E135" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="G131" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H131" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D132" s="24" t="s">
+      <c r="G135" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D136" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E132" s="24" t="s">
+      <c r="E136" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F132" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D133" s="25" t="s">
+      <c r="F136" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D137" s="25" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C134" t="s">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C138" t="s">
         <v>71</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D138" t="s">
         <v>215</v>
       </c>
-      <c r="E134" s="25" t="s">
+      <c r="E138" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G134" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D135" s="25" t="s">
+      <c r="G138" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D139" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="16" t="s">
+    <row r="140" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B140" s="16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C137" t="s">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C141" t="s">
         <v>9</v>
       </c>
-      <c r="D137" s="25" t="s">
+      <c r="D141" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E137" s="25" t="s">
+      <c r="E141" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F137" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H137" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D138" s="25" t="s">
+      <c r="F141" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D142" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E138" s="25" t="s">
+      <c r="E142" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="G138" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H138" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D139" s="25" t="s">
+      <c r="G142" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D143" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E139" s="25" t="s">
+      <c r="E143" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="G139" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D140" s="25" t="s">
+      <c r="G143" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D144" s="25" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="141" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="16" t="s">
+    <row r="145" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B145" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C142" t="s">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C146" t="s">
         <v>71</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D146" t="s">
         <v>187</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E146" t="s">
         <v>181</v>
       </c>
-      <c r="G142" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H142" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D143" t="s">
+      <c r="G146" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D147" t="s">
         <v>187</v>
       </c>
-      <c r="E143" s="25" t="s">
+      <c r="E147" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="G143" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H143" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D144" t="s">
+      <c r="G147" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D148" t="s">
         <v>187</v>
       </c>
-      <c r="E144" s="25" t="s">
+      <c r="E148" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="G144" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H144" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D145" s="25" t="s">
+      <c r="G148" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D149" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="E145" s="25" t="s">
+      <c r="E149" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="G145" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H145" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D146" s="25" t="s">
+      <c r="G149" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D150" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="E146" s="25" t="s">
+      <c r="E150" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="G146" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H146" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D147" s="25" t="s">
+      <c r="G150" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D151" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="E147" s="25" t="s">
+      <c r="E151" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="G147" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H147" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D148" s="25" t="s">
+      <c r="G151" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D152" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="E148" s="25" t="s">
+      <c r="E152" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="G148" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H148" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D149" s="25" t="s">
+      <c r="G152" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D153" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="150" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B150" s="16" t="s">
+    <row r="154" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B154" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C151" t="s">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C155" t="s">
         <v>191</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D155" t="s">
         <v>189</v>
       </c>
-      <c r="E151" s="25" t="s">
+      <c r="E155" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F151" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H151" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D152" t="s">
+      <c r="F155" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D156" t="s">
         <v>190</v>
-      </c>
-      <c r="E152" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F152" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H152" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="153" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D153" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="154" spans="2:10" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D154" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="E154" s="36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B155" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C156" t="s">
-        <v>71</v>
-      </c>
-      <c r="D156" t="s">
-        <v>192</v>
       </c>
       <c r="E156" s="25" t="s">
         <v>16</v>
@@ -3440,260 +3493,236 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D157" t="s">
+    <row r="157" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D157" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D158" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E158" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B159" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C160" t="s">
+        <v>71</v>
+      </c>
+      <c r="D160" t="s">
+        <v>192</v>
+      </c>
+      <c r="E160" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F160" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H160" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D161" t="s">
         <v>193</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E161" t="s">
         <v>194</v>
       </c>
-      <c r="G157" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H157" s="25"/>
-      <c r="I157" s="25"/>
-      <c r="J157" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="16" t="s">
+      <c r="G161" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" s="25"/>
+      <c r="I161" s="25"/>
+      <c r="J161" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C159" t="s">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C163" t="s">
         <v>138</v>
       </c>
-      <c r="D159" s="25" t="s">
+      <c r="D163" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E159" s="25" t="s">
+      <c r="E163" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="G159" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H159" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D160" s="25" t="s">
+      <c r="G163" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D164" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E160" s="25" t="s">
+      <c r="E164" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="F160" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H160" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D161" s="25" t="s">
+      <c r="F164" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D165" s="25" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C162" t="s">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C166" t="s">
         <v>47</v>
       </c>
-      <c r="D162" s="25" t="s">
+      <c r="D166" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="E162" s="25" t="s">
+      <c r="E166" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="G162" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H162" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D163" s="25" t="s">
+      <c r="G166" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D167" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="E163" s="25" t="s">
+      <c r="E167" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="F163" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H163" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D164" s="25" t="s">
+      <c r="F167" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D168" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="165" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D165" s="25" t="s">
+    <row r="169" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D169" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="E165" s="25" t="s">
+      <c r="E169" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="F165" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B166" s="16" t="s">
+      <c r="F169" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B170" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C167" s="35" t="s">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C171" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="D167" s="35" t="s">
+      <c r="D171" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="E167" s="35" t="s">
+      <c r="E171" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="F167" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H167" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C168" s="35"/>
-      <c r="D168" s="35" t="s">
+      <c r="F171" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H171" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C172" s="35"/>
+      <c r="D172" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="E168" s="35" t="s">
+      <c r="E172" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G168" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H168" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I168" s="35"/>
-    </row>
-    <row r="169" spans="2:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D169" s="36" t="s">
+      <c r="G172" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H172" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I172" s="35"/>
+    </row>
+    <row r="173" spans="2:10" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D173" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="E169" s="36" t="s">
+      <c r="E173" s="36" t="s">
         <v>315</v>
       </c>
-      <c r="G169" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C170" s="35" t="s">
+      <c r="G173" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C174" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="D170" s="35" t="s">
+      <c r="D174" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="E170" s="35" t="s">
+      <c r="E174" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="F170" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H170" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D171" s="35" t="s">
+      <c r="F174" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H174" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D175" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="E171" s="35" t="s">
+      <c r="E175" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="G171" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H171" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B172" s="16" t="s">
+      <c r="G175" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B176" s="16" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C173" t="s">
-        <v>59</v>
-      </c>
-      <c r="D173" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E173" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="G173" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H173" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D174" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E174" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="G174" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H174" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D175" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E175" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F175" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H175" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D176" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E176" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G176" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H176" s="25" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C177" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E177" s="25" t="s">
         <v>142</v>
@@ -3707,7 +3736,7 @@
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D178" s="25" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E178" s="25" t="s">
         <v>143</v>
@@ -3721,7 +3750,7 @@
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D179" s="25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E179" s="25" t="s">
         <v>136</v>
@@ -3735,7 +3764,7 @@
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D180" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E180" s="25" t="s">
         <v>146</v>
@@ -3747,170 +3776,173 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C181" t="s">
+        <v>71</v>
+      </c>
       <c r="D181" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E181" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G181" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H181" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D182" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E182" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G182" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H182" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D183" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E183" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F183" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H183" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D184" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E184" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G184" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H184" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D185" s="25" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="182" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="16" t="s">
+    <row r="186" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B186" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C183" s="36" t="s">
+    <row r="187" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C187" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="D183" s="36" t="s">
+      <c r="D187" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="E183" s="36" t="s">
+      <c r="E187" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="F183" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G183" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H183" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I183" s="16"/>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C184" s="36"/>
-      <c r="D184" s="36" t="s">
+      <c r="F187" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H187" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I187" s="16"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C188" s="36"/>
+      <c r="D188" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="E184" s="36" t="s">
+      <c r="E188" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="F184" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H184" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="2:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D185" s="36" t="s">
+      <c r="F188" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H188" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D189" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="E185" s="36" t="s">
+      <c r="E189" s="36" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C186" s="36" t="s">
+    <row r="190" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C190" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="D186" s="36" t="s">
+      <c r="D190" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="E186" s="36" t="s">
+      <c r="E190" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="F186" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H186" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K186" s="36"/>
-    </row>
-    <row r="187" spans="2:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D187" s="36" t="s">
+      <c r="F190" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H190" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K190" s="36"/>
+    </row>
+    <row r="191" spans="2:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D191" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="E187" s="36" t="s">
+      <c r="E191" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="F187" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G187" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H187" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="188" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B188" s="16" t="s">
+      <c r="F191" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H191" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B192" s="16" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D189" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="E189" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F189" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H189" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D190" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E190" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="G190" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H190" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D191" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E191" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="G191" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H191" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D192" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="E192" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F192" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H192" s="25" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D193" s="25" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E193" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G193" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F193" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H193" s="25" t="s">
@@ -3919,10 +3951,10 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D194" s="25" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E194" s="25" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G194" s="25" t="s">
         <v>12</v>
@@ -3933,118 +3965,116 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D195" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E195" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G195" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H195" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D196" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E196" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F196" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H196" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D197" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E197" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G197" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H197" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D198" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E198" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G198" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H198" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D199" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="E195" s="25" t="s">
+      <c r="E199" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="F195" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H195" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="196" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C196" s="38" t="s">
+      <c r="F199" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H199" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C200" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="D196" s="37" t="s">
+      <c r="D200" s="37" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="197" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C197" s="38" t="s">
+    <row r="201" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C201" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="D197" s="37" t="s">
+      <c r="D201" s="37" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="198" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C198" s="38" t="s">
+    <row r="202" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C202" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="D198" s="37" t="s">
+      <c r="D202" s="37" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="199" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C199" s="38" t="s">
+    <row r="203" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C203" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="D199" s="37" t="s">
+      <c r="D203" s="37" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="200" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="201" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B201" s="16" t="s">
+    <row r="204" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="205" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B205" s="16" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B202" s="26"/>
-      <c r="C202" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="D202" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="E202" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="G202" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B203" s="26"/>
-      <c r="C203" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="D203" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="E203" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F203" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B204" s="26"/>
-      <c r="C204" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="D204" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="E204" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F204" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B205" s="26"/>
-      <c r="C205" s="26"/>
-      <c r="D205" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="E205" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="F205" s="26" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B206" s="26"/>
       <c r="C206" s="26" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D206" s="26" t="s">
         <v>234</v>
@@ -4059,10 +4089,10 @@
     <row r="207" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B207" s="26"/>
       <c r="C207" s="26" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E207" s="26" t="s">
         <v>238</v>
@@ -4073,12 +4103,14 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B208" s="26"/>
-      <c r="C208" s="26"/>
+      <c r="C208" s="26" t="s">
+        <v>239</v>
+      </c>
       <c r="D208" s="26" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E208" s="26" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F208" s="26" t="s">
         <v>12</v>
@@ -4086,14 +4118,12 @@
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B209" s="26"/>
-      <c r="C209" s="26" t="s">
-        <v>248</v>
-      </c>
+      <c r="C209" s="26"/>
       <c r="D209" s="26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E209" s="26" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F209" s="26" t="s">
         <v>12</v>
@@ -4102,25 +4132,25 @@
     <row r="210" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B210" s="26"/>
       <c r="C210" s="26" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D210" s="26" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E210" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F210" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G210" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B211" s="26"/>
       <c r="C211" s="26" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D211" s="26" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E211" s="26" t="s">
         <v>238</v>
@@ -4131,27 +4161,24 @@
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B212" s="26"/>
-      <c r="C212" s="26" t="s">
-        <v>253</v>
-      </c>
+      <c r="C212" s="26"/>
       <c r="D212" s="26" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E212" s="26" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F212" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H212" s="26"/>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B213" s="26"/>
       <c r="C213" s="26" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D213" s="26" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E213" s="26" t="s">
         <v>238</v>
@@ -4163,10 +4190,10 @@
     <row r="214" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B214" s="26"/>
       <c r="C214" s="26" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D214" s="26" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E214" s="26" t="s">
         <v>238</v>
@@ -4177,251 +4204,263 @@
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B215" s="26"/>
-      <c r="C215" s="26"/>
+      <c r="C215" s="26" t="s">
+        <v>252</v>
+      </c>
       <c r="D215" s="26" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E215" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="G215" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F215" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B216" s="26"/>
       <c r="C216" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="D216" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="E216" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F216" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H216" s="26"/>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B217" s="26"/>
+      <c r="C217" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D217" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="E217" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F217" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B218" s="26"/>
+      <c r="C218" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D218" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="E218" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F218" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B219" s="26"/>
+      <c r="C219" s="26"/>
+      <c r="D219" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="E219" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G219" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B220" s="26"/>
+      <c r="C220" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D216" s="26" t="s">
+      <c r="D220" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="E216" s="26" t="s">
+      <c r="E220" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="G216" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="217" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B217" s="16" t="s">
+      <c r="G220" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B221" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D218" s="27" t="s">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D222" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="E218" s="27" t="s">
+      <c r="E222" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F218" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H218" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D219" s="27" t="s">
+      <c r="F222" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H222" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D223" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="E219" s="27" t="s">
+      <c r="E223" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="F219" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="220" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B220" s="16" t="s">
+      <c r="F223" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B224" s="16" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D221" s="28" t="s">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D225" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="E221" s="28" t="s">
+      <c r="E225" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F221" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H221" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D222" s="28" t="s">
+      <c r="F225" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H225" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D226" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="E222" s="28" t="s">
+      <c r="E226" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="G222" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H222" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D223" s="28" t="s">
+      <c r="G226" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H226" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D227" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="E223" s="28" t="s">
+      <c r="E227" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F223" s="27"/>
-      <c r="G223" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H223" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D224" s="28" t="s">
+      <c r="F227" s="27"/>
+      <c r="G227" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H227" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D228" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="E224" s="28" t="s">
+      <c r="E228" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="G224" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D225" s="29" t="s">
+      <c r="G228" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D229" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="E225" s="29" t="s">
+      <c r="E229" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F225" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H225" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D226" s="29" t="s">
+      <c r="F229" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H229" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D230" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="E226" s="29" t="s">
+      <c r="E230" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="F226" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D227" s="30" t="s">
+      <c r="F230" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D231" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="E227" s="30" t="s">
+      <c r="E231" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F227" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H227" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D228" s="30" t="s">
+      <c r="F231" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H231" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D232" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="E228" s="30" t="s">
+      <c r="E232" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="G228" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H228" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D229" s="30" t="s">
+      <c r="G232" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H232" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D233" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="E229" s="30" t="s">
+      <c r="E233" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="G229" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H229" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="230" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B230" s="16" t="s">
+      <c r="G233" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H233" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B234" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C231" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="D231" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="E231" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="G231" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H231" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C232" s="35"/>
-      <c r="D232" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="E232" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F232" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H232" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C233" s="35"/>
-      <c r="D233" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="E233" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F233" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D234" s="31"/>
-      <c r="E234" s="31"/>
-      <c r="F234" s="30"/>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C235" s="35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D235" s="35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E235" s="35" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G235" s="35" t="s">
         <v>12</v>
@@ -4433,12 +4472,12 @@
     <row r="236" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C236" s="35"/>
       <c r="D236" s="35" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E236" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="G236" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F236" s="35" t="s">
         <v>12</v>
       </c>
       <c r="H236" s="35" t="s">
@@ -4448,7 +4487,7 @@
     <row r="237" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C237" s="35"/>
       <c r="D237" s="35" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E237" s="35" t="s">
         <v>16</v>
@@ -4458,63 +4497,61 @@
       </c>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C238" s="35"/>
-      <c r="D238" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="E238" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="G238" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H238" s="35" t="s">
-        <v>12</v>
-      </c>
+      <c r="D238" s="31"/>
+      <c r="E238" s="31"/>
+      <c r="F238" s="30"/>
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D239" s="32"/>
-      <c r="E239" s="32"/>
+      <c r="C239" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D239" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E239" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G239" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H239" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C240" s="35" t="s">
-        <v>291</v>
-      </c>
+      <c r="C240" s="35"/>
       <c r="D240" s="35" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E240" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F240" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G240" s="35" t="s">
         <v>12</v>
       </c>
       <c r="H240" s="35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="241" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C241" s="35"/>
       <c r="D241" s="35" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E241" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="G241" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H241" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="F241" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C242" s="35"/>
       <c r="D242" s="35" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E242" s="35" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G242" s="35" t="s">
         <v>12</v>
@@ -4523,285 +4560,336 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C243" s="35"/>
-      <c r="D243" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="E243" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="F243" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D244" s="33"/>
-      <c r="E244" s="33"/>
-    </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C245" s="35" t="s">
-        <v>292</v>
-      </c>
+    <row r="243" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D243" s="32"/>
+      <c r="E243" s="32"/>
+    </row>
+    <row r="244" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C244" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="D244" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="E244" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F244" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H244" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C245" s="35"/>
       <c r="D245" s="35" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E245" s="35" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G245" s="35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H245" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C246" s="35"/>
       <c r="D246" s="35" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E246" s="35" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="G246" s="35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H246" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C247" s="35"/>
       <c r="D247" s="35" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E247" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="G247" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C248" s="35"/>
-      <c r="D248" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="E248" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="G248" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C249" s="35"/>
+        <v>272</v>
+      </c>
+      <c r="F247" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D248" s="33"/>
+      <c r="E248" s="33"/>
+    </row>
+    <row r="249" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C249" s="35" t="s">
+        <v>292</v>
+      </c>
       <c r="D249" s="35" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E249" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="F249" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="G249" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C250" s="35"/>
       <c r="D250" s="35" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E250" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F250" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D251" s="34"/>
-      <c r="E251" s="34"/>
-    </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C252" s="35" t="s">
-        <v>293</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G250" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C251" s="35"/>
+      <c r="D251" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E251" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G251" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C252" s="35"/>
       <c r="D252" s="35" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E252" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F252" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+      <c r="G252" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C253" s="35"/>
       <c r="D253" s="35" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E253" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="G253" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+      <c r="F253" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C254" s="35"/>
       <c r="D254" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="E254" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F254" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D255" s="34"/>
+      <c r="E255" s="34"/>
+    </row>
+    <row r="256" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C256" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="D256" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E256" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F256" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C257" s="35"/>
+      <c r="D257" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E257" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G257" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C258" s="35"/>
+      <c r="D258" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="E254" s="35" t="s">
+      <c r="E258" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="G254" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C255" s="35"/>
-      <c r="D255" s="35" t="s">
+      <c r="G258" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C259" s="35"/>
+      <c r="D259" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="E255" s="35" t="s">
+      <c r="E259" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="G255" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="256" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B256" s="16" t="s">
+      <c r="G259" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B260" s="16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C257" s="36" t="s">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C261" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="D257" s="36" t="s">
+      <c r="D261" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="E257" s="36" t="s">
+      <c r="E261" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F257" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H257" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C258" s="36"/>
-      <c r="D258" s="36" t="s">
+      <c r="F261" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H261" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C262" s="36"/>
+      <c r="D262" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="E258" s="36" t="s">
+      <c r="E262" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="F258" s="36"/>
-      <c r="G258" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H258" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="259" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D259" s="36" t="s">
+      <c r="F262" s="36"/>
+      <c r="G262" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H262" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D263" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="E259" s="36" t="s">
+      <c r="E263" s="36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C260" s="36" t="s">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C264" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="D260" s="36" t="s">
+      <c r="D264" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="E260" s="36" t="s">
+      <c r="E264" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F260" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H260" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C261" s="36"/>
-      <c r="D261" s="36" t="s">
+      <c r="F264" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H264" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C265" s="36"/>
+      <c r="D265" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="E261" s="36" t="s">
+      <c r="E265" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="F261" s="36"/>
-      <c r="G261" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H261" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D262" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="E262" s="36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="263" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B263" s="16" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C264" t="s">
-        <v>336</v>
-      </c>
-      <c r="D264" t="s">
-        <v>332</v>
-      </c>
-      <c r="E264" t="s">
-        <v>16</v>
-      </c>
-      <c r="G264" s="36"/>
-    </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D265" t="s">
-        <v>333</v>
-      </c>
-      <c r="E265" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="F265" s="35"/>
+      <c r="F265" s="36"/>
+      <c r="G265" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H265" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D266" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E266" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B267" s="16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C268" t="s">
+        <v>336</v>
+      </c>
+      <c r="D268" t="s">
+        <v>332</v>
+      </c>
+      <c r="E268" t="s">
+        <v>16</v>
+      </c>
+      <c r="G268" s="36"/>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D269" t="s">
         <v>333</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E269" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F269" s="35"/>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D270" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="E270" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D267" t="s">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D271" t="s">
         <v>334</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E271" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C268" s="39"/>
-      <c r="D268" s="39" t="s">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C272" s="39"/>
+      <c r="D272" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="E268" s="39" t="s">
+      <c r="E272" s="39" t="s">
         <v>348</v>
       </c>
     </row>

--- a/art/美术量/3D/动作/特效资源总表.xlsx
+++ b/art/美术量/3D/动作/特效资源总表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="388">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1320,6 +1320,134 @@
   </si>
   <si>
     <t>utlsheshouzuo3pre1</t>
+  </si>
+  <si>
+    <t>冰龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultyoumier3pre2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultyoumier3pre2_hit(命中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultyoumier3pre1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultyoumier3pre1_lhand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultyoumier3pre_hit(命中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方胸口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultyoumier3pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultyoumier3pre_rhand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip001 R Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultyoumier3pre_hit(命中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方胸口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultyoumier3pre3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultyoumier3pre1_lhand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip001 L Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utlladong5pre1_hit（命中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utlladong5pre1_rhand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utlladong5pre1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utlladong5pre2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultAnpushaHit（命中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utlladong5pre3_head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1739,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K272"/>
+  <dimension ref="B1:K296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="I296" sqref="I296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4857,6 +4985,9 @@
       <c r="E268" t="s">
         <v>16</v>
       </c>
+      <c r="F268" s="41" t="s">
+        <v>12</v>
+      </c>
       <c r="G268" s="36"/>
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.15">
@@ -4867,6 +4998,9 @@
         <v>128</v>
       </c>
       <c r="F269" s="35"/>
+      <c r="G269" s="41" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D270" s="36" t="s">
@@ -4875,6 +5009,9 @@
       <c r="E270" t="s">
         <v>118</v>
       </c>
+      <c r="G270" s="41" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D271" t="s">
@@ -4882,6 +5019,9 @@
       </c>
       <c r="E271" t="s">
         <v>335</v>
+      </c>
+      <c r="G271" s="41" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.15">
@@ -4892,6 +5032,250 @@
       <c r="E272" s="39" t="s">
         <v>348</v>
       </c>
+      <c r="G272" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B273" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C274" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="D274" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="E274" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F274" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C275" s="41"/>
+      <c r="D275" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="E275" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="F275" s="41"/>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C276" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="D276" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="E276" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C277" s="41"/>
+      <c r="D277" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="E277" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="G277" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C278" s="41"/>
+      <c r="D278" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="E278" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="G278" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C279" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="D279" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="E279" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="F279" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C280" s="41"/>
+      <c r="D280" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="E280" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="G280" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C281" s="41"/>
+      <c r="D281" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="E281" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="G281" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C282" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="D282" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="E282" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="F282" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C283" s="41"/>
+      <c r="D283" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="E283" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="G283" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C284" s="41"/>
+      <c r="D284" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="E284" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="G284" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B285" s="16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C286" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="D286" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="E286" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="G286" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C287" s="41"/>
+      <c r="D287" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="E287" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="G287" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C288" s="41"/>
+      <c r="D288" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="E288" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F288" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C289" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="D289" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="E289" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F289" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C290" s="41"/>
+      <c r="D290" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="E290" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="G290" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C291" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="D291" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="E291" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G291" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C292" s="41"/>
+      <c r="D292" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="E292" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="G292" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I296" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/art/美术量/3D/动作/特效资源总表.xlsx
+++ b/art/美术量/3D/动作/特效资源总表.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="394">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,15 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ultmengyanpre</t>
-  </si>
-  <si>
-    <t>ultmengyanpre_head</t>
-  </si>
-  <si>
-    <t>Bip01 HeadNub</t>
-  </si>
-  <si>
     <t>暗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -868,10 +859,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>驱散敌方增益buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ultyifulite4Pre</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1447,6 +1434,46 @@
   </si>
   <si>
     <t>utlladong5pre3_head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultAnpushaHit(命中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方胸口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫦娥暗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫦娥黑愤怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utlchange5pre_fennu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utlchange5pre_fennu_rhand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultMengyan5Pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultMengyan5Pre_head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip01 Head</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1502,7 +1529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1538,7 +1565,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1869,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="I296" sqref="I296"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62:E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1907,13 +1933,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1943,7 +1969,7 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1954,10 +1980,10 @@
       <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="25" t="s">
+      <c r="G4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1968,10 +1994,10 @@
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="25" t="s">
+      <c r="F5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1982,16 +2008,16 @@
       <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="25" t="s">
-        <v>198</v>
+      <c r="F6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="24" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -2004,10 +2030,10 @@
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="25" t="s">
+      <c r="G8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2018,10 +2044,10 @@
       <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="25" t="s">
+      <c r="F9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2032,10 +2058,10 @@
       <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="25" t="s">
+      <c r="G10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2046,10 +2072,10 @@
       <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="25" t="s">
+      <c r="F11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2060,10 +2086,10 @@
       <c r="E12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="25" t="s">
+      <c r="G12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2074,62 +2100,62 @@
       <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="20" t="s">
+      <c r="F13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D18" s="25" t="s">
-        <v>199</v>
+      <c r="G17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="24" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2147,10 +2173,10 @@
       <c r="E20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="25" t="s">
+      <c r="F20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2161,11 +2187,11 @@
       <c r="E21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25" t="s">
+      <c r="F21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2176,38 +2202,38 @@
       <c r="E22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D23" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="25" t="s">
+      <c r="F25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2226,16 +2252,16 @@
       <c r="E27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="25" t="s">
-        <v>201</v>
+      <c r="F27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="24" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2245,33 +2271,33 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C31" s="5"/>
       <c r="D31" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="25" t="s">
+      <c r="F31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2290,10 +2316,10 @@
       <c r="E33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="25" t="s">
+      <c r="G33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2304,10 +2330,10 @@
       <c r="E34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="25" t="s">
+      <c r="G34" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2318,10 +2344,10 @@
       <c r="E35" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="25" t="s">
+      <c r="F35" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2332,10 +2358,10 @@
       <c r="E36" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="25" t="s">
+      <c r="F36" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2346,16 +2372,16 @@
       <c r="E37" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G37" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D38" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E38" s="15"/>
     </row>
@@ -2369,10 +2395,10 @@
       <c r="E39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="25" t="s">
+      <c r="F39" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2383,10 +2409,10 @@
       <c r="E40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="25" t="s">
+      <c r="G40" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2405,10 +2431,10 @@
       <c r="E42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="25" t="s">
+      <c r="G42" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2419,36 +2445,36 @@
       <c r="E43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="E44" s="25" t="s">
+      <c r="F43" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E44" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D45" s="25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="G44" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D45" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="8" t="s">
         <v>52</v>
@@ -2464,10 +2490,10 @@
       <c r="E48" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="25" t="s">
+      <c r="F48" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2478,10 +2504,10 @@
       <c r="E49" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G49" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="25" t="s">
+      <c r="G49" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2492,16 +2518,16 @@
       <c r="E50" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D51" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E51" s="15"/>
     </row>
@@ -2515,63 +2541,63 @@
         <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D54" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" t="s">
         <v>168</v>
       </c>
-      <c r="E54" t="s">
-        <v>171</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="25" t="s">
+      <c r="G54" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E55" t="s">
-        <v>128</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D56" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D57" s="25" t="s">
-        <v>206</v>
+        <v>125</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D56" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D57" s="24" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2589,16 +2615,16 @@
       <c r="E59" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D60" s="25" t="s">
-        <v>207</v>
+      <c r="F59" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D60" s="24" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2608,219 +2634,219 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C62" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="25" t="s">
+      <c r="D62" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D63" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="25" t="s">
+      <c r="D63" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C65" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E65" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D66" s="25" t="s">
-        <v>208</v>
+      <c r="F65" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D66" s="24" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C68" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
-      </c>
-      <c r="E68" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="25" t="s">
+      <c r="F68" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D69" t="s">
-        <v>174</v>
-      </c>
-      <c r="E69" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="25" t="s">
+      <c r="F69" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="70" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C71" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D71" t="s">
-        <v>175</v>
-      </c>
-      <c r="E71" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E71" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="25" t="s">
+      <c r="F71" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D72" t="s">
-        <v>176</v>
-      </c>
-      <c r="E72" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D73" s="25" t="s">
-        <v>209</v>
+      <c r="F72" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D73" s="24" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D75" t="s">
-        <v>177</v>
-      </c>
-      <c r="E75" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="25" t="s">
+      <c r="F75" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D76" t="s">
-        <v>178</v>
-      </c>
-      <c r="E76" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F76" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D77" s="25" t="s">
-        <v>209</v>
+      <c r="F76" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D77" s="24" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B78" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
         <v>47</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D80" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E79" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D80" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="25" t="s">
+      <c r="F80" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B81" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.15">
@@ -2828,105 +2854,105 @@
         <v>9</v>
       </c>
       <c r="D82" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E82" t="s">
+        <v>77</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D83" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="D84" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E84" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F82" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D83" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="D84" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G84" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D85" s="25" t="s">
-        <v>210</v>
+      <c r="G84" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D85" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="E85" s="14"/>
     </row>
     <row r="86" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B86" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="C87" t="s">
-        <v>71</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>85</v>
+        <v>68</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="E87" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D88" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G87" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D88" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F88" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" s="25" t="s">
+      <c r="F88" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D89" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E89" s="19" t="s">
+      <c r="D89" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F89" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="25" t="s">
+      <c r="F89" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="90" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.15">
@@ -2934,2348 +2960,2376 @@
         <v>59</v>
       </c>
       <c r="D91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
-      </c>
-      <c r="G91" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E92" t="s">
-        <v>118</v>
-      </c>
-      <c r="G92" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D93" s="25" t="s">
-        <v>211</v>
+        <v>115</v>
+      </c>
+      <c r="G92" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D93" s="24" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B94" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C95" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E95" s="22" t="s">
+      <c r="D95" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E95" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="25" t="s">
+      <c r="F95" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C96" t="s">
-        <v>94</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="E96" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E96" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="25" t="s">
+      <c r="F96" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="97" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B97" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C98" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D98" t="s">
-        <v>226</v>
-      </c>
-      <c r="E98" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E98" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F98" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" s="25" t="s">
+      <c r="F98" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D99" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E99" t="s">
-        <v>229</v>
-      </c>
-      <c r="F99" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="25"/>
+        <v>225</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="24"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
+      <c r="E100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
     </row>
     <row r="101" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B101" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D102" t="s">
-        <v>230</v>
-      </c>
-      <c r="E102" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E102" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="25" t="s">
+      <c r="F102" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C103" s="25"/>
+      <c r="C103" s="24"/>
       <c r="D103" t="s">
-        <v>231</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="G103" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G103" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="105" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B105" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C106" t="s">
         <v>47</v>
       </c>
-      <c r="D106" s="22" t="s">
+      <c r="D106" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D107" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E107" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E106" s="22" t="s">
+      <c r="G107" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D108" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E108" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G106" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D107" s="22" t="s">
+      <c r="G108" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D109" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E107" s="22" t="s">
+      <c r="E109" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="G107" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H107" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D108" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G108" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D109" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F109" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D110" s="25" t="s">
-        <v>213</v>
+      <c r="F109" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D110" s="24" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C111" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="22" t="s">
+      <c r="D111" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D112" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E112" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E111" s="22" t="s">
+      <c r="G112" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D113" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="G111" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D112" s="22" t="s">
+      <c r="G113" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D114" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E112" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G112" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D113" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E113" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G113" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D114" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E114" s="22" t="s">
+      <c r="E114" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D115" s="25" t="s">
-        <v>212</v>
+      <c r="F114" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D115" s="24" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="116" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B116" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C117" t="s">
-        <v>71</v>
-      </c>
-      <c r="D117" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="E117" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E117" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F117" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" s="25" t="s">
+      <c r="F117" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D118" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E118" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="G118" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" s="25" t="s">
+      <c r="D118" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G118" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="119" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B119" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C120" s="36" t="s">
+      <c r="C120" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="D120" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="E120" s="35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C121" s="35"/>
+      <c r="D121" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="E121" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="D120" s="36" t="s">
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C122" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="E120" s="36" t="s">
+      <c r="D122" s="35" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C121" s="36"/>
-      <c r="D121" s="36" t="s">
+      <c r="E122" s="35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D123" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="E121" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C122" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="D122" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="E122" s="36" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D123" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="E123" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="125" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="E123" s="35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="126" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B126" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="D127" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="E127" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="40"/>
+      <c r="D128" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="E128" s="40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="40"/>
+      <c r="D129" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="D127" s="41" t="s">
+      <c r="E129" s="40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C130" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="E127" s="41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="41"/>
-      <c r="D128" s="41" t="s">
+      <c r="D130" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="E130" s="40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B131" s="38"/>
+      <c r="C131" s="40"/>
+      <c r="D131" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="E131" s="40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C132" s="40"/>
+      <c r="D132" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="E132" s="40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="40"/>
+      <c r="D133" s="40" t="s">
         <v>351</v>
       </c>
-      <c r="E128" s="41" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="41"/>
-      <c r="D129" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="E129" s="41" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C130" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="D130" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="E130" s="41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B131" s="39"/>
-      <c r="C131" s="41"/>
-      <c r="D131" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="E131" s="41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C132" s="41"/>
-      <c r="D132" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="E132" s="41" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="41"/>
-      <c r="D133" s="41" t="s">
-        <v>355</v>
-      </c>
-      <c r="E133" s="41" t="s">
+      <c r="E133" s="40" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="134" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B134" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C135" t="s">
         <v>47</v>
       </c>
-      <c r="D135" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E135" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G135" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" s="25" t="s">
+      <c r="D135" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E135" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G135" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D136" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E136" s="24" t="s">
+      <c r="D136" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E136" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F136" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H136" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D137" s="25" t="s">
-        <v>216</v>
+      <c r="F136" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D137" s="24" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C138" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D138" t="s">
-        <v>215</v>
-      </c>
-      <c r="E138" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G138" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H138" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D139" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="E138" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G138" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D139" s="24" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="140" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B140" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C141" t="s">
         <v>9</v>
       </c>
-      <c r="D141" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E141" s="25" t="s">
+      <c r="D141" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E141" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F141" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H141" s="25" t="s">
+      <c r="F141" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D142" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E142" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="G142" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H142" s="25" t="s">
+      <c r="D142" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E142" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G142" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D143" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E143" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="G143" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D144" s="25" t="s">
-        <v>217</v>
+      <c r="D143" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G143" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D144" s="24" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="145" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B145" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C146" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D146" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E146" t="s">
-        <v>181</v>
-      </c>
-      <c r="G146" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H146" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G146" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D147" t="s">
-        <v>187</v>
-      </c>
-      <c r="E147" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="G147" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H147" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G147" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D148" t="s">
-        <v>187</v>
-      </c>
-      <c r="E148" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E148" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G148" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D149" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G149" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D150" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G150" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D151" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E151" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G148" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H148" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D149" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E149" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="G149" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H149" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D150" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E150" s="25" t="s">
+      <c r="G151" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D152" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="G150" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H150" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D151" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E151" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="G151" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H151" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E152" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G152" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H152" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D153" s="25" t="s">
-        <v>218</v>
+      <c r="E152" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G152" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D153" s="24" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="154" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B154" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C155" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D155" t="s">
-        <v>189</v>
-      </c>
-      <c r="E155" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E155" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F155" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H155" s="25" t="s">
+      <c r="F155" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D156" t="s">
-        <v>190</v>
-      </c>
-      <c r="E156" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E156" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F156" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H156" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D157" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D158" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="E158" s="36" t="s">
+      <c r="F156" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D157" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D158" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="E158" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="159" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B159" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C160" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D160" t="s">
-        <v>192</v>
-      </c>
-      <c r="E160" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E160" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F160" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H160" s="25" t="s">
+      <c r="F160" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H160" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D161" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E161" t="s">
-        <v>194</v>
-      </c>
-      <c r="G161" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H161" s="25"/>
-      <c r="I161" s="25"/>
-      <c r="J161" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G161" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" s="24"/>
+      <c r="I161" s="24"/>
+      <c r="J161" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="162" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B162" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C163" t="s">
-        <v>138</v>
-      </c>
-      <c r="D163" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D163" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E163" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G163" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D164" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E164" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E163" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G163" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H163" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D164" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E164" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F164" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H164" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D165" s="25" t="s">
-        <v>220</v>
+      <c r="F164" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D165" s="24" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C166" t="s">
         <v>47</v>
       </c>
-      <c r="D166" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E166" s="25" t="s">
+      <c r="D166" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G166" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H166" s="25" t="s">
+      <c r="E166" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G166" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D167" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="E167" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F167" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H167" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D168" s="25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="169" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D169" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="E169" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F169" s="25" t="s">
+      <c r="D167" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E167" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F167" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D168" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D169" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E169" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F169" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="170" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B170" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C171" s="35" t="s">
+      <c r="C171" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D171" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="E171" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="F171" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H171" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C172" s="34"/>
+      <c r="D172" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="E172" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H172" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I172" s="34"/>
+    </row>
+    <row r="173" spans="2:10" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D173" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="E173" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="G173" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C174" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="D171" s="35" t="s">
+      <c r="D174" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="E171" s="35" t="s">
+      <c r="E174" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="F171" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H171" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C172" s="35"/>
-      <c r="D172" s="35" t="s">
+      <c r="F174" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H174" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D175" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="E172" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H172" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I172" s="35"/>
-    </row>
-    <row r="173" spans="2:10" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D173" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="E173" s="36" t="s">
-        <v>315</v>
-      </c>
-      <c r="G173" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C174" s="35" t="s">
+      <c r="E175" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="D174" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="E174" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="F174" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H174" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="2:10" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D175" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="E175" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="G175" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H175" s="35" t="s">
+      <c r="G175" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="176" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B176" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C177" t="s">
         <v>59</v>
       </c>
-      <c r="D177" s="25" t="s">
+      <c r="D177" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E177" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G177" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H177" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D178" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E178" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G178" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H178" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D179" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E177" s="25" t="s">
+      <c r="E179" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F179" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H179" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D180" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G177" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H177" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D178" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E178" s="25" t="s">
+      <c r="E180" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G178" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H178" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D179" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E179" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F179" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H179" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D180" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E180" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G180" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H180" s="25" t="s">
+      <c r="G180" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H180" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C181" t="s">
-        <v>71</v>
-      </c>
-      <c r="D181" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E181" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="G181" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H181" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E181" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G181" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H181" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D182" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E182" s="25" t="s">
+      <c r="D182" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E182" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G182" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H182" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D183" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E183" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F183" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H183" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D184" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E184" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G182" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H182" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D183" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E183" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F183" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H183" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D184" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E184" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G184" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H184" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D185" s="25" t="s">
-        <v>222</v>
+      <c r="G184" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H184" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D185" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="E185" s="24" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="186" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B186" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C187" s="36" t="s">
+      <c r="C187" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="D187" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="E187" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="F187" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H187" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I187" s="16"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C188" s="35"/>
+      <c r="D188" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="E188" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="F188" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H188" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D189" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="E189" s="35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C190" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="D190" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="D187" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="E187" s="36" t="s">
+      <c r="E190" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="F190" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H190" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K190" s="35"/>
+    </row>
+    <row r="191" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D191" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="F187" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G187" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H187" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I187" s="16"/>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C188" s="36"/>
-      <c r="D188" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="E188" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="F188" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H188" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="2:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D189" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="E189" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C190" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="D190" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="E190" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="F190" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H190" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K190" s="36"/>
-    </row>
-    <row r="191" spans="2:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D191" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="E191" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="F191" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H191" s="36" t="s">
+      <c r="E191" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="F191" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H191" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="192" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B192" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D193" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E193" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F193" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H193" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D194" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E194" s="24" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D193" s="25" t="s">
+      <c r="G194" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H194" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D195" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E193" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F193" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H193" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D194" s="25" t="s">
+      <c r="E195" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="E194" s="25" t="s">
+      <c r="G195" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H195" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D196" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="G194" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H194" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D195" s="25" t="s">
+      <c r="E196" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F196" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H196" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D197" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="E195" s="25" t="s">
+      <c r="E197" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G195" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H195" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D196" s="25" t="s">
+      <c r="G197" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H197" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D198" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E198" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E196" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F196" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H196" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D197" s="25" t="s">
+      <c r="G198" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H198" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D199" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E197" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G197" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H197" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D198" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="E198" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="G198" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H198" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D199" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E199" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F199" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H199" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="200" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C200" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="D200" s="37" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="201" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C201" s="38" t="s">
+      <c r="E199" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F199" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H199" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C200" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="D200" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="D201" s="37" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="202" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C202" s="38" t="s">
+    </row>
+    <row r="201" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C201" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="D201" s="36" t="s">
         <v>339</v>
       </c>
-      <c r="D202" s="37" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="203" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C203" s="38" t="s">
+    </row>
+    <row r="202" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C202" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="D202" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="D203" s="37" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="204" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="203" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C203" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D203" s="36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="205" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B205" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B206" s="25"/>
+      <c r="C206" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D206" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E206" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G206" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B207" s="25"/>
+      <c r="C207" s="25" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B206" s="26"/>
-      <c r="C206" s="26" t="s">
+      <c r="D207" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="D206" s="26" t="s">
+      <c r="E207" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="E206" s="26" t="s">
+      <c r="F207" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B208" s="25"/>
+      <c r="C208" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="G206" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B207" s="26"/>
-      <c r="C207" s="26" t="s">
+      <c r="D208" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="D207" s="26" t="s">
+      <c r="E208" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F208" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B209" s="25"/>
+      <c r="C209" s="25"/>
+      <c r="D209" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="E207" s="26" t="s">
+      <c r="E209" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="F207" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B208" s="26"/>
-      <c r="C208" s="26" t="s">
+      <c r="F209" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B210" s="25"/>
+      <c r="C210" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="D208" s="26" t="s">
+      <c r="D210" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E210" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G210" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B211" s="25"/>
+      <c r="C211" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="E208" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F208" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B209" s="26"/>
-      <c r="C209" s="26"/>
-      <c r="D209" s="26" t="s">
+      <c r="D211" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="E209" s="26" t="s">
+      <c r="E211" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F211" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B212" s="25"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="F209" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B210" s="26"/>
-      <c r="C210" s="26" t="s">
+      <c r="E212" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="D210" s="26" t="s">
+      <c r="F212" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B213" s="25"/>
+      <c r="C213" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="D213" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="E213" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="E210" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="G210" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B211" s="26"/>
-      <c r="C211" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="D211" s="26" t="s">
+      <c r="F213" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B214" s="25"/>
+      <c r="C214" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D214" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="E214" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F214" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B215" s="25"/>
+      <c r="C215" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D215" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="E211" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F211" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B212" s="26"/>
-      <c r="C212" s="26"/>
-      <c r="D212" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="E212" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="F212" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B213" s="26"/>
-      <c r="C213" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="D213" s="26" t="s">
+      <c r="E215" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F215" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B216" s="25"/>
+      <c r="C216" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="E213" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F213" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B214" s="26"/>
-      <c r="C214" s="26" t="s">
+      <c r="D216" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="D214" s="26" t="s">
+      <c r="E216" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F216" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H216" s="25"/>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B217" s="25"/>
+      <c r="C217" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="E214" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F214" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B215" s="26"/>
-      <c r="C215" s="26" t="s">
+      <c r="D217" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="D215" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="E215" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F215" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B216" s="26"/>
-      <c r="C216" s="26" t="s">
+      <c r="E217" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F217" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B218" s="25"/>
+      <c r="C218" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="D216" s="26" t="s">
+      <c r="D218" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E218" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F218" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B219" s="25"/>
+      <c r="C219" s="25"/>
+      <c r="D219" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="E216" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F216" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H216" s="26"/>
-    </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B217" s="26"/>
-      <c r="C217" s="26" t="s">
+      <c r="E219" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G219" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B220" s="25"/>
+      <c r="C220" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="D217" s="26" t="s">
+      <c r="D220" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="E217" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F217" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B218" s="26"/>
-      <c r="C218" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D218" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="E218" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F218" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B219" s="26"/>
-      <c r="C219" s="26"/>
-      <c r="D219" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="E219" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="G219" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B220" s="26"/>
-      <c r="C220" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="D220" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="E220" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="G220" s="26" t="s">
+      <c r="E220" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G220" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="221" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B221" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D222" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="E222" s="27" t="s">
+      <c r="D222" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="E222" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F222" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H222" s="27" t="s">
+      <c r="F222" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H222" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D223" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="E223" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="F223" s="27" t="s">
+      <c r="D223" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E223" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="F223" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="224" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B224" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D225" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="E225" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F225" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H225" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D226" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E226" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G226" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H226" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D227" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E227" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F227" s="26"/>
+      <c r="G227" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H227" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D228" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="E228" s="27" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D225" s="28" t="s">
+      <c r="G228" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D229" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="E225" s="28" t="s">
+      <c r="E229" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F225" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H225" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D226" s="28" t="s">
+      <c r="F229" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H229" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D230" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="E226" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="G226" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H226" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D227" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="E227" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="F227" s="27"/>
-      <c r="G227" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H227" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D228" s="28" t="s">
+      <c r="E230" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="E228" s="28" t="s">
+      <c r="F230" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D231" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G228" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D229" s="29" t="s">
+      <c r="E231" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F231" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H231" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D232" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="E229" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F229" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H229" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D230" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="E230" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="F230" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D231" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E231" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F231" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H231" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D232" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="E232" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="G232" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H232" s="30" t="s">
+      <c r="E232" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G232" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H232" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D233" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="E233" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G233" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H233" s="30" t="s">
+      <c r="D233" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="E233" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G233" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H233" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="234" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B234" s="16" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C235" s="35" t="s">
+      <c r="C235" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D235" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="E235" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G235" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H235" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C236" s="34"/>
+      <c r="D236" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="E236" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F236" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H236" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C237" s="34"/>
+      <c r="D237" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="E237" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F237" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D238" s="30"/>
+      <c r="E238" s="30"/>
+      <c r="F238" s="29"/>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C239" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D239" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="E239" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G239" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H239" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C240" s="34"/>
+      <c r="D240" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="E240" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G240" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H240" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C241" s="34"/>
+      <c r="D241" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="E241" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F241" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C242" s="34"/>
+      <c r="D242" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="E242" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G242" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H242" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D243" s="31"/>
+      <c r="E243" s="31"/>
+    </row>
+    <row r="244" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C244" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="D244" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="E244" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F244" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H244" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C245" s="34"/>
+      <c r="D245" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="E245" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G245" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H245" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C246" s="34"/>
+      <c r="D246" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="E246" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G246" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H246" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C247" s="34"/>
+      <c r="D247" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="E247" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="F247" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D248" s="32"/>
+      <c r="E248" s="32"/>
+    </row>
+    <row r="249" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C249" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="D249" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="E249" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G249" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C250" s="34"/>
+      <c r="D250" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="E250" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G250" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C251" s="34"/>
+      <c r="D251" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="E251" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G251" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C252" s="34"/>
+      <c r="D252" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="E252" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G252" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C253" s="34"/>
+      <c r="D253" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="E253" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="F253" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C254" s="34"/>
+      <c r="D254" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="E254" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F254" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D255" s="33"/>
+      <c r="E255" s="33"/>
+    </row>
+    <row r="256" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C256" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="D235" s="35" t="s">
+      <c r="D256" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="E256" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F256" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C257" s="34"/>
+      <c r="D257" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="E257" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="E235" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="G235" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H235" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C236" s="35"/>
-      <c r="D236" s="35" t="s">
+      <c r="G257" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C258" s="34"/>
+      <c r="D258" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="E258" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G258" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C259" s="34"/>
+      <c r="D259" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="E236" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F236" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H236" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C237" s="35"/>
-      <c r="D237" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="E237" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F237" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D238" s="31"/>
-      <c r="E238" s="31"/>
-      <c r="F238" s="30"/>
-    </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C239" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="D239" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="E239" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="G239" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H239" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C240" s="35"/>
-      <c r="D240" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="E240" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="G240" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H240" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="241" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C241" s="35"/>
-      <c r="D241" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="E241" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F241" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="242" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C242" s="35"/>
-      <c r="D242" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="E242" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="G242" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H242" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="243" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D243" s="32"/>
-      <c r="E243" s="32"/>
-    </row>
-    <row r="244" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C244" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="D244" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="E244" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F244" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H244" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="245" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C245" s="35"/>
-      <c r="D245" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="E245" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="G245" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H245" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="246" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C246" s="35"/>
-      <c r="D246" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="E246" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="G246" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H246" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="247" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C247" s="35"/>
-      <c r="D247" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="E247" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="F247" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="248" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D248" s="33"/>
-      <c r="E248" s="33"/>
-    </row>
-    <row r="249" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C249" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="D249" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="E249" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="G249" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="250" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C250" s="35"/>
-      <c r="D250" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="E250" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="G250" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C251" s="35"/>
-      <c r="D251" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="E251" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="G251" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C252" s="35"/>
-      <c r="D252" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="E252" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="G252" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="253" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C253" s="35"/>
-      <c r="D253" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="E253" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="F253" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="254" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C254" s="35"/>
-      <c r="D254" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E254" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F254" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="255" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D255" s="34"/>
-      <c r="E255" s="34"/>
-    </row>
-    <row r="256" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C256" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="D256" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="E256" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F256" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C257" s="35"/>
-      <c r="D257" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="E257" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="G257" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C258" s="35"/>
-      <c r="D258" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="E258" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="G258" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C259" s="35"/>
-      <c r="D259" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="E259" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="G259" s="35" t="s">
+      <c r="E259" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G259" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="260" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B260" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C261" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="D261" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="E261" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F261" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H261" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C262" s="35"/>
+      <c r="D262" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="E262" s="35" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C261" s="36" t="s">
+      <c r="F262" s="35"/>
+      <c r="G262" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H262" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D263" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="E263" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C264" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="D261" s="36" t="s">
+      <c r="D264" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="E261" s="36" t="s">
+      <c r="E264" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F261" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H261" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C262" s="36"/>
-      <c r="D262" s="36" t="s">
+      <c r="F264" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H264" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C265" s="35"/>
+      <c r="D265" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="E262" s="36" t="s">
+      <c r="E265" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="F265" s="35"/>
+      <c r="G265" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H265" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D266" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="F262" s="36"/>
-      <c r="G262" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H262" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="263" spans="2:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D263" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="E263" s="36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C264" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="D264" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="E264" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F264" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H264" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C265" s="36"/>
-      <c r="D265" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="E265" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="F265" s="36"/>
-      <c r="G265" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H265" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D266" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="E266" s="36" t="s">
+      <c r="E266" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="267" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B267" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C268" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D268" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E268" t="s">
         <v>16</v>
       </c>
-      <c r="F268" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G268" s="36"/>
+      <c r="F268" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G268" s="35"/>
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D269" t="s">
-        <v>333</v>
-      </c>
-      <c r="E269" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="F269" s="35"/>
-      <c r="G269" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="E269" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F269" s="34"/>
+      <c r="G269" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D270" s="36" t="s">
-        <v>333</v>
+      <c r="D270" s="35" t="s">
+        <v>329</v>
       </c>
       <c r="E270" t="s">
-        <v>118</v>
-      </c>
-      <c r="G270" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G270" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D271" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E271" t="s">
-        <v>335</v>
-      </c>
-      <c r="G271" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="G271" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C272" s="39"/>
-      <c r="D272" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="E272" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="G272" s="41" t="s">
+      <c r="C272" s="38"/>
+      <c r="D272" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="E272" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="G272" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="273" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B273" s="16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C274" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="D274" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E274" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F274" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C275" s="40"/>
+      <c r="D275" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="E275" s="40" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C274" s="41" t="s">
+      <c r="F275" s="40"/>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C276" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="D274" s="41" t="s">
+      <c r="D276" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="E274" s="41" t="s">
+      <c r="E276" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F274" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C275" s="41"/>
-      <c r="D275" s="41" t="s">
+      <c r="F276" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C277" s="40"/>
+      <c r="D277" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="E275" s="41" t="s">
+      <c r="E277" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="G277" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C278" s="40"/>
+      <c r="D278" s="40" t="s">
         <v>360</v>
       </c>
-      <c r="F275" s="41"/>
-    </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C276" s="41" t="s">
+      <c r="E278" s="40" t="s">
         <v>361</v>
       </c>
-      <c r="D276" s="41" t="s">
+      <c r="G278" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C279" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="E276" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F276" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C277" s="41"/>
-      <c r="D277" s="41" t="s">
+      <c r="D279" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="E277" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="G277" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C278" s="41"/>
-      <c r="D278" s="41" t="s">
+      <c r="E279" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="E278" s="41" t="s">
+      <c r="F279" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C280" s="40"/>
+      <c r="D280" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="G278" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C279" s="41" t="s">
+      <c r="E280" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="D279" s="41" t="s">
+      <c r="G280" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C281" s="40"/>
+      <c r="D281" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="E279" s="41" t="s">
+      <c r="E281" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="F279" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C280" s="41"/>
-      <c r="D280" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="E280" s="41" t="s">
+      <c r="G281" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C282" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="G280" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C281" s="41"/>
-      <c r="D281" s="41" t="s">
+      <c r="D282" s="40" t="s">
         <v>371</v>
       </c>
-      <c r="E281" s="41" t="s">
+      <c r="E282" s="40" t="s">
         <v>372</v>
       </c>
-      <c r="G281" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C282" s="41" t="s">
+      <c r="F282" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C283" s="40"/>
+      <c r="D283" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="E283" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="D282" s="41" t="s">
-        <v>375</v>
-      </c>
-      <c r="E282" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="F282" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C283" s="41"/>
-      <c r="D283" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="E283" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="G283" s="41" t="s">
+      <c r="G283" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C284" s="41"/>
-      <c r="D284" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="E284" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="G284" s="41" t="s">
+      <c r="C284" s="40"/>
+      <c r="D284" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="E284" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="G284" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="285" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B285" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C286" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="D286" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="E286" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G286" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C287" s="40"/>
+      <c r="D287" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="E287" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G287" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C288" s="40"/>
+      <c r="D288" s="40" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C286" s="41" t="s">
+      <c r="E288" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F288" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C289" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="D286" s="41" t="s">
+      <c r="D289" s="40" t="s">
         <v>381</v>
       </c>
-      <c r="E286" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="G286" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C287" s="41"/>
-      <c r="D287" s="41" t="s">
+      <c r="E289" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F289" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C290" s="40"/>
+      <c r="D290" s="40" t="s">
         <v>382</v>
       </c>
-      <c r="E287" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="G287" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C288" s="41"/>
-      <c r="D288" s="41" t="s">
+      <c r="E290" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G290" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C291" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="D291" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="E288" s="41" t="s">
+      <c r="E291" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G291" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C292" s="40"/>
+      <c r="D292" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="E292" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G292" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B293" s="16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="294" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C294" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="D294" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="E294" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F288" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="289" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C289" s="41" t="s">
-        <v>384</v>
-      </c>
-      <c r="D289" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="E289" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F289" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="290" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C290" s="41"/>
-      <c r="D290" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="E290" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="G290" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="291" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C291" s="41" t="s">
-        <v>373</v>
-      </c>
-      <c r="D291" s="41" t="s">
-        <v>387</v>
-      </c>
-      <c r="E291" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G291" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="292" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C292" s="41"/>
-      <c r="D292" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="E292" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="G292" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="296" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="I296" s="41"/>
+    </row>
+    <row r="295" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C295" s="40"/>
+      <c r="D295" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="E295" s="40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="296" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I296" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
